--- a/lstm/backtesting/model1/大小盘等权/model1return.xlsx
+++ b/lstm/backtesting/model1/大小盘等权/model1return.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1534"/>
+  <dimension ref="A1:C1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         <v>43467</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000716462</v>
+        <v>-0.013657599</v>
       </c>
       <c r="C2" t="n">
         <v>-0.0064705685</v>
@@ -470,7 +470,7 @@
         <v>43468</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.006182718</v>
+        <v>-0.001580449</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0038815835</v>
@@ -481,7 +481,7 @@
         <v>43469</v>
       </c>
       <c r="B4" t="n">
-        <v>0.024016034</v>
+        <v>0.023958106</v>
       </c>
       <c r="C4" t="n">
         <v>0.02398707</v>
@@ -503,7 +503,7 @@
         <v>43473</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.002160722</v>
+        <v>-0.00020409</v>
       </c>
       <c r="C6" t="n">
         <v>-0.001182406</v>
@@ -514,7 +514,7 @@
         <v>43474</v>
       </c>
       <c r="B7" t="n">
-        <v>0.010096914</v>
+        <v>0.003442346</v>
       </c>
       <c r="C7" t="n">
         <v>0.00676963</v>
@@ -525,7 +525,7 @@
         <v>43475</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.001880638</v>
+        <v>-0.000709275</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0012949565</v>
@@ -1295,7 +1295,7 @@
         <v>43581</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.013954131</v>
+        <v>-0.013329186</v>
       </c>
       <c r="C78" t="n">
         <v>-0.0136416585</v>
@@ -1306,7 +1306,7 @@
         <v>43584</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.041413329</v>
+        <v>0.002843486</v>
       </c>
       <c r="C79" t="n">
         <v>-0.0192849215</v>
@@ -1317,7 +1317,7 @@
         <v>43585</v>
       </c>
       <c r="B80" t="n">
-        <v>0.008834886</v>
+        <v>0.003301538</v>
       </c>
       <c r="C80" t="n">
         <v>0.006068212</v>
@@ -1328,7 +1328,7 @@
         <v>43591</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.07754697300000001</v>
+        <v>-0.058416017</v>
       </c>
       <c r="C81" t="n">
         <v>-0.067981495</v>
@@ -1339,7 +1339,7 @@
         <v>43592</v>
       </c>
       <c r="B82" t="n">
-        <v>0.016694951</v>
+        <v>0.009784355</v>
       </c>
       <c r="C82" t="n">
         <v>0.013239653</v>
@@ -1438,7 +1438,7 @@
         <v>43605</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.008487402</v>
+        <v>-0.001959123</v>
       </c>
       <c r="C91" t="n">
         <v>-0.0052232625</v>
@@ -1713,7 +1713,7 @@
         <v>43641</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.011558981</v>
+        <v>-0.010401805</v>
       </c>
       <c r="C116" t="n">
         <v>-0.010980393</v>
@@ -1724,7 +1724,7 @@
         <v>43642</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.001718627</v>
+        <v>-0.001835894</v>
       </c>
       <c r="C117" t="n">
         <v>-0.0017772605</v>
@@ -1735,7 +1735,7 @@
         <v>43643</v>
       </c>
       <c r="B118" t="n">
-        <v>0.005692562</v>
+        <v>0.010670181</v>
       </c>
       <c r="C118" t="n">
         <v>0.0081813715</v>
@@ -1746,7 +1746,7 @@
         <v>43644</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.01621535</v>
+        <v>-0.002406868</v>
       </c>
       <c r="C119" t="n">
         <v>-0.009311109</v>
@@ -1757,7 +1757,7 @@
         <v>43647</v>
       </c>
       <c r="B120" t="n">
-        <v>0.029790184</v>
+        <v>0.028812387</v>
       </c>
       <c r="C120" t="n">
         <v>0.0293012855</v>
@@ -1801,7 +1801,7 @@
         <v>43651</v>
       </c>
       <c r="B124" t="n">
-        <v>0.003854846</v>
+        <v>0.005189794</v>
       </c>
       <c r="C124" t="n">
         <v>0.00452232</v>
@@ -1812,7 +1812,7 @@
         <v>43654</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.03746583</v>
+        <v>-0.023223246</v>
       </c>
       <c r="C125" t="n">
         <v>-0.030344538</v>
@@ -1823,7 +1823,7 @@
         <v>43655</v>
       </c>
       <c r="B126" t="n">
-        <v>0.006611925</v>
+        <v>-0.00254024</v>
       </c>
       <c r="C126" t="n">
         <v>0.0020358425</v>
@@ -1834,7 +1834,7 @@
         <v>43656</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.006753327</v>
+        <v>-0.001684809</v>
       </c>
       <c r="C127" t="n">
         <v>-0.004219068</v>
@@ -1845,7 +1845,7 @@
         <v>43657</v>
       </c>
       <c r="B128" t="n">
-        <v>0.000624706</v>
+        <v>-0.000400873</v>
       </c>
       <c r="C128" t="n">
         <v>0.0001119165</v>
@@ -1856,7 +1856,7 @@
         <v>43658</v>
       </c>
       <c r="B129" t="n">
-        <v>0.002694528</v>
+        <v>0.006211024</v>
       </c>
       <c r="C129" t="n">
         <v>0.004452776</v>
@@ -1867,7 +1867,7 @@
         <v>43661</v>
       </c>
       <c r="B130" t="n">
-        <v>0.009448121</v>
+        <v>0.004058228</v>
       </c>
       <c r="C130" t="n">
         <v>0.0067531745</v>
@@ -1878,7 +1878,7 @@
         <v>43662</v>
       </c>
       <c r="B131" t="n">
-        <v>0.00396713</v>
+        <v>-0.004535055</v>
       </c>
       <c r="C131" t="n">
         <v>-0.0002839624999999998</v>
@@ -1889,7 +1889,7 @@
         <v>43663</v>
       </c>
       <c r="B132" t="n">
-        <v>0.000761865</v>
+        <v>-0.000579614</v>
       </c>
       <c r="C132" t="n">
         <v>9.112550000000001e-05</v>
@@ -1900,7 +1900,7 @@
         <v>43664</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.020231522</v>
+        <v>-0.009524295</v>
       </c>
       <c r="C133" t="n">
         <v>-0.0148779085</v>
@@ -1911,7 +1911,7 @@
         <v>43665</v>
       </c>
       <c r="B134" t="n">
-        <v>0.004666983</v>
+        <v>0.010496014</v>
       </c>
       <c r="C134" t="n">
         <v>0.0075814985</v>
@@ -1922,7 +1922,7 @@
         <v>43668</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.0338698</v>
+        <v>-0.006899215</v>
       </c>
       <c r="C135" t="n">
         <v>-0.0203845075</v>
@@ -1933,7 +1933,7 @@
         <v>43669</v>
       </c>
       <c r="B136" t="n">
-        <v>0.015713598</v>
+        <v>0.002176359</v>
       </c>
       <c r="C136" t="n">
         <v>0.008944978499999999</v>
@@ -1944,7 +1944,7 @@
         <v>43670</v>
       </c>
       <c r="B137" t="n">
-        <v>0.014869558</v>
+        <v>0.007894375</v>
       </c>
       <c r="C137" t="n">
         <v>0.0113819665</v>
@@ -1955,7 +1955,7 @@
         <v>43671</v>
       </c>
       <c r="B138" t="n">
-        <v>0.002282425</v>
+        <v>0.008176798000000001</v>
       </c>
       <c r="C138" t="n">
         <v>0.0052296115</v>
@@ -1966,7 +1966,7 @@
         <v>43672</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.0007099470000000001</v>
+        <v>0.00194811</v>
       </c>
       <c r="C139" t="n">
         <v>0.0006190815</v>
@@ -1977,7 +1977,7 @@
         <v>43675</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.000497203</v>
+        <v>-0.001113988</v>
       </c>
       <c r="C140" t="n">
         <v>-0.0008055955</v>
@@ -1988,7 +1988,7 @@
         <v>43676</v>
       </c>
       <c r="B141" t="n">
-        <v>0.004642411</v>
+        <v>0.004163486</v>
       </c>
       <c r="C141" t="n">
         <v>0.0044029485</v>
@@ -1999,7 +1999,7 @@
         <v>43677</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.006657203</v>
+        <v>-0.009032515</v>
       </c>
       <c r="C142" t="n">
         <v>-0.007844858999999999</v>
@@ -2010,7 +2010,7 @@
         <v>43678</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.001541165</v>
+        <v>-0.008314607</v>
       </c>
       <c r="C143" t="n">
         <v>-0.004927886</v>
@@ -2098,7 +2098,7 @@
         <v>43690</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.006456269</v>
+        <v>-0.00901656</v>
       </c>
       <c r="C151" t="n">
         <v>-0.0077364145</v>
@@ -2109,7 +2109,7 @@
         <v>43691</v>
       </c>
       <c r="B152" t="n">
-        <v>0.007042909</v>
+        <v>0.004542043</v>
       </c>
       <c r="C152" t="n">
         <v>0.005792476</v>
@@ -2120,7 +2120,7 @@
         <v>43692</v>
       </c>
       <c r="B153" t="n">
-        <v>0.004038485</v>
+        <v>0.003149874</v>
       </c>
       <c r="C153" t="n">
         <v>0.0035941795</v>
@@ -2131,7 +2131,7 @@
         <v>43693</v>
       </c>
       <c r="B154" t="n">
-        <v>0.005064388</v>
+        <v>0.004476989</v>
       </c>
       <c r="C154" t="n">
         <v>0.0047706885</v>
@@ -2142,7 +2142,7 @@
         <v>43696</v>
       </c>
       <c r="B155" t="n">
-        <v>0.031062386</v>
+        <v>0.021710056</v>
       </c>
       <c r="C155" t="n">
         <v>0.026386221</v>
@@ -2153,7 +2153,7 @@
         <v>43697</v>
       </c>
       <c r="B156" t="n">
-        <v>0.003577706</v>
+        <v>-0.000886868</v>
       </c>
       <c r="C156" t="n">
         <v>0.001345419</v>
@@ -2164,7 +2164,7 @@
         <v>43698</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001785267</v>
+        <v>-0.001577329</v>
       </c>
       <c r="C157" t="n">
         <v>0.0001039690000000001</v>
@@ -2175,7 +2175,7 @@
         <v>43699</v>
       </c>
       <c r="B158" t="n">
-        <v>0.005837754</v>
+        <v>0.003106545</v>
       </c>
       <c r="C158" t="n">
         <v>0.0044721495</v>
@@ -2186,7 +2186,7 @@
         <v>43700</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.003498305</v>
+        <v>0.007211719</v>
       </c>
       <c r="C159" t="n">
         <v>0.001856707</v>
@@ -2197,7 +2197,7 @@
         <v>43703</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.00680789</v>
+        <v>-0.014382428</v>
       </c>
       <c r="C160" t="n">
         <v>-0.010595159</v>
@@ -2208,7 +2208,7 @@
         <v>43704</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01839516</v>
+        <v>0.013551942</v>
       </c>
       <c r="C161" t="n">
         <v>0.015973551</v>
@@ -2219,7 +2219,7 @@
         <v>43705</v>
       </c>
       <c r="B162" t="n">
-        <v>0.000202252</v>
+        <v>-0.003762563</v>
       </c>
       <c r="C162" t="n">
         <v>-0.0017801555</v>
@@ -2230,7 +2230,7 @@
         <v>43706</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.000151729</v>
+        <v>-0.003260335</v>
       </c>
       <c r="C163" t="n">
         <v>-0.001706032</v>
@@ -2241,7 +2241,7 @@
         <v>43707</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.017744989</v>
+        <v>0.002479983</v>
       </c>
       <c r="C164" t="n">
         <v>-0.007632503</v>
@@ -2252,7 +2252,7 @@
         <v>43710</v>
       </c>
       <c r="B165" t="n">
-        <v>0.026092579</v>
+        <v>0.012826002</v>
       </c>
       <c r="C165" t="n">
         <v>0.0194592905</v>
@@ -2263,7 +2263,7 @@
         <v>43711</v>
       </c>
       <c r="B166" t="n">
-        <v>0.008470808999999999</v>
+        <v>0.001374834</v>
       </c>
       <c r="C166" t="n">
         <v>0.0049228215</v>
@@ -2274,7 +2274,7 @@
         <v>43712</v>
       </c>
       <c r="B167" t="n">
-        <v>0.007902529</v>
+        <v>0.008405259999999999</v>
       </c>
       <c r="C167" t="n">
         <v>0.0081538945</v>
@@ -2285,7 +2285,7 @@
         <v>43713</v>
       </c>
       <c r="B168" t="n">
-        <v>0.00917578</v>
+        <v>0.010118834</v>
       </c>
       <c r="C168" t="n">
         <v>0.009647307000000001</v>
@@ -2296,7 +2296,7 @@
         <v>43714</v>
       </c>
       <c r="B169" t="n">
-        <v>0.004896168</v>
+        <v>0.005906393</v>
       </c>
       <c r="C169" t="n">
         <v>0.0054012805</v>
@@ -2307,7 +2307,7 @@
         <v>43717</v>
       </c>
       <c r="B170" t="n">
-        <v>0.024925376</v>
+        <v>0.006189909</v>
       </c>
       <c r="C170" t="n">
         <v>0.0155576425</v>
@@ -2318,7 +2318,7 @@
         <v>43718</v>
       </c>
       <c r="B171" t="n">
-        <v>0.00331973</v>
+        <v>-0.003444142</v>
       </c>
       <c r="C171" t="n">
         <v>-6.220599999999998e-05</v>
@@ -2329,7 +2329,7 @@
         <v>43719</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.006344436</v>
+        <v>-0.007366291</v>
       </c>
       <c r="C172" t="n">
         <v>-0.006855363499999999</v>
@@ -2340,7 +2340,7 @@
         <v>43720</v>
       </c>
       <c r="B173" t="n">
-        <v>0.007107758</v>
+        <v>0.010757996</v>
       </c>
       <c r="C173" t="n">
         <v>0.008932877000000001</v>
@@ -2406,7 +2406,7 @@
         <v>43731</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.007296075</v>
+        <v>-0.011431273</v>
       </c>
       <c r="C179" t="n">
         <v>-0.009363674000000001</v>
@@ -2417,7 +2417,7 @@
         <v>43732</v>
       </c>
       <c r="B180" t="n">
-        <v>0.003279873</v>
+        <v>0.002676717</v>
       </c>
       <c r="C180" t="n">
         <v>0.002978295</v>
@@ -2428,7 +2428,7 @@
         <v>43733</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.021140939</v>
+        <v>-0.007713795</v>
       </c>
       <c r="C181" t="n">
         <v>-0.014427367</v>
@@ -2439,7 +2439,7 @@
         <v>43734</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.033031128</v>
+        <v>-0.007709901</v>
       </c>
       <c r="C182" t="n">
         <v>-0.0203705145</v>
@@ -2450,7 +2450,7 @@
         <v>43735</v>
       </c>
       <c r="B183" t="n">
-        <v>0.010254642</v>
+        <v>0.002997705</v>
       </c>
       <c r="C183" t="n">
         <v>0.0066261735</v>
@@ -2461,7 +2461,7 @@
         <v>43738</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.012046933</v>
+        <v>-0.009895829</v>
       </c>
       <c r="C184" t="n">
         <v>-0.010971381</v>
@@ -2472,7 +2472,7 @@
         <v>43746</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002849989</v>
+        <v>0.006069139</v>
       </c>
       <c r="C185" t="n">
         <v>0.004459564</v>
@@ -2483,7 +2483,7 @@
         <v>43747</v>
       </c>
       <c r="B186" t="n">
-        <v>0.012050417</v>
+        <v>0.001448818</v>
       </c>
       <c r="C186" t="n">
         <v>0.0067496175</v>
@@ -2494,7 +2494,7 @@
         <v>43748</v>
       </c>
       <c r="B187" t="n">
-        <v>0.013289729</v>
+        <v>0.008170165</v>
       </c>
       <c r="C187" t="n">
         <v>0.010729947</v>
@@ -2505,7 +2505,7 @@
         <v>43749</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002534431</v>
+        <v>0.009571524</v>
       </c>
       <c r="C188" t="n">
         <v>0.0060529775</v>
@@ -2516,7 +2516,7 @@
         <v>43752</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01619183</v>
+        <v>0.010613169</v>
       </c>
       <c r="C189" t="n">
         <v>0.0134024995</v>
@@ -2527,7 +2527,7 @@
         <v>43753</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.01050503</v>
+        <v>-0.004298068</v>
       </c>
       <c r="C190" t="n">
         <v>-0.007401549</v>
@@ -2538,7 +2538,7 @@
         <v>43754</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.007551443</v>
+        <v>-0.003446021</v>
       </c>
       <c r="C191" t="n">
         <v>-0.005498732</v>
@@ -2549,7 +2549,7 @@
         <v>43755</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.001269125</v>
+        <v>0.000646547</v>
       </c>
       <c r="C192" t="n">
         <v>-0.000311289</v>
@@ -2560,7 +2560,7 @@
         <v>43756</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.013385846</v>
+        <v>-0.014226942</v>
       </c>
       <c r="C193" t="n">
         <v>-0.013806394</v>
@@ -2571,7 +2571,7 @@
         <v>43759</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.003514471</v>
+        <v>0.002962259</v>
       </c>
       <c r="C194" t="n">
         <v>-0.0002761059999999999</v>
@@ -2582,7 +2582,7 @@
         <v>43760</v>
       </c>
       <c r="B195" t="n">
-        <v>0.013444231</v>
+        <v>0.003875733</v>
       </c>
       <c r="C195" t="n">
         <v>0.008659982</v>
@@ -2593,7 +2593,7 @@
         <v>43761</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.006006983</v>
+        <v>-0.006364697</v>
       </c>
       <c r="C196" t="n">
         <v>-0.00618584</v>
@@ -2604,7 +2604,7 @@
         <v>43762</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.000551383</v>
+        <v>-0.000107722</v>
       </c>
       <c r="C197" t="n">
         <v>-0.0003295525</v>
@@ -2615,7 +2615,7 @@
         <v>43763</v>
       </c>
       <c r="B198" t="n">
-        <v>0.005322331</v>
+        <v>0.006749352</v>
       </c>
       <c r="C198" t="n">
         <v>0.0060358415</v>
@@ -2626,7 +2626,7 @@
         <v>43766</v>
       </c>
       <c r="B199" t="n">
-        <v>0.020920859</v>
+        <v>0.007645442</v>
       </c>
       <c r="C199" t="n">
         <v>0.0142831505</v>
@@ -2637,7 +2637,7 @@
         <v>43767</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.016400395</v>
+        <v>-0.004166216</v>
       </c>
       <c r="C200" t="n">
         <v>-0.0102833055</v>
@@ -2648,7 +2648,7 @@
         <v>43768</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.014839543</v>
+        <v>-0.004859182</v>
       </c>
       <c r="C201" t="n">
         <v>-0.0098493625</v>
@@ -2659,7 +2659,7 @@
         <v>43769</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.015106346</v>
+        <v>-0.001149664</v>
       </c>
       <c r="C202" t="n">
         <v>-0.008128005000000001</v>
@@ -2670,7 +2670,7 @@
         <v>43770</v>
       </c>
       <c r="B203" t="n">
-        <v>0.009903110999999999</v>
+        <v>0.016886928</v>
       </c>
       <c r="C203" t="n">
         <v>0.0133950195</v>
@@ -2681,7 +2681,7 @@
         <v>43773</v>
       </c>
       <c r="B204" t="n">
-        <v>0.001525931</v>
+        <v>0.006511103</v>
       </c>
       <c r="C204" t="n">
         <v>0.004018517</v>
@@ -2758,7 +2758,7 @@
         <v>43782</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.00392852</v>
+        <v>-0.000949692</v>
       </c>
       <c r="C211" t="n">
         <v>-0.002439106</v>
@@ -2769,7 +2769,7 @@
         <v>43783</v>
       </c>
       <c r="B212" t="n">
-        <v>0.008151685000000001</v>
+        <v>0.001506546</v>
       </c>
       <c r="C212" t="n">
         <v>0.0048291155</v>
@@ -2780,7 +2780,7 @@
         <v>43784</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.014134645</v>
+        <v>-0.007365298</v>
       </c>
       <c r="C213" t="n">
         <v>-0.0107499715</v>
@@ -2791,7 +2791,7 @@
         <v>43787</v>
       </c>
       <c r="B214" t="n">
-        <v>0.007542501</v>
+        <v>0.007954395</v>
       </c>
       <c r="C214" t="n">
         <v>0.007748448</v>
@@ -2802,7 +2802,7 @@
         <v>43788</v>
       </c>
       <c r="B215" t="n">
-        <v>0.017917112</v>
+        <v>0.010007884</v>
       </c>
       <c r="C215" t="n">
         <v>0.013962498</v>
@@ -2813,7 +2813,7 @@
         <v>43789</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.006923999</v>
+        <v>-0.009925186000000001</v>
       </c>
       <c r="C216" t="n">
         <v>-0.008424592500000001</v>
@@ -2824,7 +2824,7 @@
         <v>43790</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.001012654</v>
+        <v>-0.00467419</v>
       </c>
       <c r="C217" t="n">
         <v>-0.002843422</v>
@@ -2835,7 +2835,7 @@
         <v>43791</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.010875361</v>
+        <v>-0.010181823</v>
       </c>
       <c r="C218" t="n">
         <v>-0.010528592</v>
@@ -2846,7 +2846,7 @@
         <v>43794</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.008634055999999999</v>
+        <v>0.00732762</v>
       </c>
       <c r="C219" t="n">
         <v>-0.0006532179999999997</v>
@@ -2857,7 +2857,7 @@
         <v>43795</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.001123985</v>
+        <v>0.003467376</v>
       </c>
       <c r="C220" t="n">
         <v>0.0011716955</v>
@@ -2868,7 +2868,7 @@
         <v>43796</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.000407332</v>
+        <v>-0.00412028</v>
       </c>
       <c r="C221" t="n">
         <v>-0.002263806</v>
@@ -2879,7 +2879,7 @@
         <v>43797</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.002130509</v>
+        <v>-0.003435761</v>
       </c>
       <c r="C222" t="n">
         <v>-0.002783135</v>
@@ -2890,7 +2890,7 @@
         <v>43798</v>
       </c>
       <c r="B223" t="n">
-        <v>0.000782715</v>
+        <v>-0.008707836</v>
       </c>
       <c r="C223" t="n">
         <v>-0.0039625605</v>
@@ -2901,7 +2901,7 @@
         <v>43801</v>
       </c>
       <c r="B224" t="n">
-        <v>0.001727578</v>
+        <v>0.00192973</v>
       </c>
       <c r="C224" t="n">
         <v>0.001828654</v>
@@ -2912,7 +2912,7 @@
         <v>43802</v>
       </c>
       <c r="B225" t="n">
-        <v>0.007105948</v>
+        <v>0.003917667</v>
       </c>
       <c r="C225" t="n">
         <v>0.0055118075</v>
@@ -2923,7 +2923,7 @@
         <v>43803</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0014035</v>
+        <v>-0.000329336</v>
       </c>
       <c r="C226" t="n">
         <v>0.000537082</v>
@@ -2934,7 +2934,7 @@
         <v>43804</v>
       </c>
       <c r="B227" t="n">
-        <v>0.011788144</v>
+        <v>0.007674335</v>
       </c>
       <c r="C227" t="n">
         <v>0.009731239500000001</v>
@@ -2945,7 +2945,7 @@
         <v>43805</v>
       </c>
       <c r="B228" t="n">
-        <v>0.006140708</v>
+        <v>0.005934349</v>
       </c>
       <c r="C228" t="n">
         <v>0.0060375285</v>
@@ -2956,7 +2956,7 @@
         <v>43808</v>
       </c>
       <c r="B229" t="n">
-        <v>0.003338617</v>
+        <v>-0.001778015</v>
       </c>
       <c r="C229" t="n">
         <v>0.000780301</v>
@@ -3132,7 +3132,7 @@
         <v>43830</v>
       </c>
       <c r="B245" t="n">
-        <v>0.003662431</v>
+        <v>0.005550075</v>
       </c>
       <c r="C245" t="n">
         <v>0.004606252999999999</v>
@@ -3308,7 +3308,7 @@
         <v>43853</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.034534325</v>
+        <v>-0.030985463</v>
       </c>
       <c r="C261" t="n">
         <v>-0.032759894</v>
@@ -3319,7 +3319,7 @@
         <v>43864</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.088729801</v>
+        <v>-0.078809011</v>
       </c>
       <c r="C262" t="n">
         <v>-0.08376940599999999</v>
@@ -3330,7 +3330,7 @@
         <v>43865</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.009374713</v>
+        <v>0.026374827</v>
       </c>
       <c r="C263" t="n">
         <v>0.008500057</v>
@@ -3341,7 +3341,7 @@
         <v>43866</v>
       </c>
       <c r="B264" t="n">
-        <v>0.031412183</v>
+        <v>0.011329558</v>
       </c>
       <c r="C264" t="n">
         <v>0.0213708705</v>
@@ -3880,7 +3880,7 @@
         <v>43936</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.006634468</v>
+        <v>-0.00740696</v>
       </c>
       <c r="C313" t="n">
         <v>-0.007020714</v>
@@ -4331,7 +4331,7 @@
         <v>43998</v>
       </c>
       <c r="B354" t="n">
-        <v>0.018749198</v>
+        <v>0.015065</v>
       </c>
       <c r="C354" t="n">
         <v>0.016907099</v>
@@ -4342,7 +4342,7 @@
         <v>43999</v>
       </c>
       <c r="B355" t="n">
-        <v>0.005717205</v>
+        <v>0.000753231</v>
       </c>
       <c r="C355" t="n">
         <v>0.003235218</v>
@@ -4441,7 +4441,7 @@
         <v>44014</v>
       </c>
       <c r="B364" t="n">
-        <v>0.020731047</v>
+        <v>0.01021237</v>
       </c>
       <c r="C364" t="n">
         <v>0.0154717085</v>
@@ -4452,7 +4452,7 @@
         <v>44015</v>
       </c>
       <c r="B365" t="n">
-        <v>0.01931596</v>
+        <v>0.010753856</v>
       </c>
       <c r="C365" t="n">
         <v>0.015034908</v>
@@ -4463,7 +4463,7 @@
         <v>44018</v>
       </c>
       <c r="B366" t="n">
-        <v>0.056679259</v>
+        <v>0.034650462</v>
       </c>
       <c r="C366" t="n">
         <v>0.0456648605</v>
@@ -4474,7 +4474,7 @@
         <v>44019</v>
       </c>
       <c r="B367" t="n">
-        <v>0.006002341</v>
+        <v>0.013500316</v>
       </c>
       <c r="C367" t="n">
         <v>0.0097513285</v>
@@ -4485,7 +4485,7 @@
         <v>44020</v>
       </c>
       <c r="B368" t="n">
-        <v>0.016150651</v>
+        <v>0.02097994</v>
       </c>
       <c r="C368" t="n">
         <v>0.0185652955</v>
@@ -4496,7 +4496,7 @@
         <v>44021</v>
       </c>
       <c r="B369" t="n">
-        <v>0.013985534</v>
+        <v>0.028601543</v>
       </c>
       <c r="C369" t="n">
         <v>0.0212935385</v>
@@ -4507,7 +4507,7 @@
         <v>44022</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.018104119</v>
+        <v>-0.003132754</v>
       </c>
       <c r="C370" t="n">
         <v>-0.0106184365</v>
@@ -4518,7 +4518,7 @@
         <v>44025</v>
       </c>
       <c r="B371" t="n">
-        <v>0.021002546</v>
+        <v>0.036738521</v>
       </c>
       <c r="C371" t="n">
         <v>0.0288705335</v>
@@ -4529,7 +4529,7 @@
         <v>44026</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.009534591</v>
+        <v>-0.005756645</v>
       </c>
       <c r="C372" t="n">
         <v>-0.007645618</v>
@@ -4540,7 +4540,7 @@
         <v>44027</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.01294477</v>
+        <v>-0.026072257</v>
       </c>
       <c r="C373" t="n">
         <v>-0.0195085135</v>
@@ -4551,7 +4551,7 @@
         <v>44028</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.048101382</v>
+        <v>-0.048175833</v>
       </c>
       <c r="C374" t="n">
         <v>-0.0481386075</v>
@@ -4562,7 +4562,7 @@
         <v>44029</v>
       </c>
       <c r="B375" t="n">
-        <v>0.006298916</v>
+        <v>0.003732548</v>
       </c>
       <c r="C375" t="n">
         <v>0.005015732</v>
@@ -4573,7 +4573,7 @@
         <v>44032</v>
       </c>
       <c r="B376" t="n">
-        <v>0.029837806</v>
+        <v>0.035596714</v>
       </c>
       <c r="C376" t="n">
         <v>0.03271726</v>
@@ -4584,7 +4584,7 @@
         <v>44033</v>
       </c>
       <c r="B377" t="n">
-        <v>0.002294274</v>
+        <v>0.005899651</v>
       </c>
       <c r="C377" t="n">
         <v>0.0040969625</v>
@@ -4595,7 +4595,7 @@
         <v>44034</v>
       </c>
       <c r="B378" t="n">
-        <v>0.004988848</v>
+        <v>0.004512672</v>
       </c>
       <c r="C378" t="n">
         <v>0.00475076</v>
@@ -4606,7 +4606,7 @@
         <v>44035</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.000426286</v>
+        <v>-0.001195827</v>
       </c>
       <c r="C379" t="n">
         <v>-0.0008110565000000001</v>
@@ -4738,7 +4738,7 @@
         <v>44053</v>
       </c>
       <c r="B391" t="n">
-        <v>0.003598931</v>
+        <v>0.008311373</v>
       </c>
       <c r="C391" t="n">
         <v>0.005955152</v>
@@ -4749,7 +4749,7 @@
         <v>44054</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.009118981999999999</v>
+        <v>-0.021585527</v>
       </c>
       <c r="C392" t="n">
         <v>-0.0153522545</v>
@@ -4760,7 +4760,7 @@
         <v>44055</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.0072919</v>
+        <v>-0.005877053</v>
       </c>
       <c r="C393" t="n">
         <v>-0.0065844765</v>
@@ -4771,7 +4771,7 @@
         <v>44056</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.002567322</v>
+        <v>0.007843417</v>
       </c>
       <c r="C394" t="n">
         <v>0.0026380475</v>
@@ -4782,7 +4782,7 @@
         <v>44057</v>
       </c>
       <c r="B395" t="n">
-        <v>0.014866366</v>
+        <v>0.004204501</v>
       </c>
       <c r="C395" t="n">
         <v>0.009535433500000001</v>
@@ -4793,7 +4793,7 @@
         <v>44060</v>
       </c>
       <c r="B396" t="n">
-        <v>0.023508188</v>
+        <v>0.019831338</v>
       </c>
       <c r="C396" t="n">
         <v>0.021669763</v>
@@ -4804,7 +4804,7 @@
         <v>44061</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.000512894</v>
+        <v>0.010353636</v>
       </c>
       <c r="C397" t="n">
         <v>0.004920371</v>
@@ -4815,7 +4815,7 @@
         <v>44062</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.014976449</v>
+        <v>-0.015930251</v>
       </c>
       <c r="C398" t="n">
         <v>-0.01545335</v>
@@ -4826,7 +4826,7 @@
         <v>44063</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.012977889</v>
+        <v>-0.012037813</v>
       </c>
       <c r="C399" t="n">
         <v>-0.012507851</v>
@@ -4837,7 +4837,7 @@
         <v>44064</v>
       </c>
       <c r="B400" t="n">
-        <v>0.008482023999999999</v>
+        <v>0.006455185</v>
       </c>
       <c r="C400" t="n">
         <v>0.0074686045</v>
@@ -4848,7 +4848,7 @@
         <v>44067</v>
       </c>
       <c r="B401" t="n">
-        <v>0.007842175999999999</v>
+        <v>0.009224464</v>
       </c>
       <c r="C401" t="n">
         <v>0.00853332</v>
@@ -4859,7 +4859,7 @@
         <v>44068</v>
       </c>
       <c r="B402" t="n">
-        <v>0.001282967</v>
+        <v>-0.000250231</v>
       </c>
       <c r="C402" t="n">
         <v>0.000516368</v>
@@ -4870,7 +4870,7 @@
         <v>44069</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.011722192</v>
+        <v>-0.023376558</v>
       </c>
       <c r="C403" t="n">
         <v>-0.017549375</v>
@@ -4881,7 +4881,7 @@
         <v>44070</v>
       </c>
       <c r="B404" t="n">
-        <v>0.005357884</v>
+        <v>0.016662335</v>
       </c>
       <c r="C404" t="n">
         <v>0.0110101095</v>
@@ -4925,7 +4925,7 @@
         <v>44076</v>
       </c>
       <c r="B408" t="n">
-        <v>0.010881258</v>
+        <v>0.000364448</v>
       </c>
       <c r="C408" t="n">
         <v>0.005622853</v>
@@ -4936,7 +4936,7 @@
         <v>44077</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.011608432</v>
+        <v>-0.005531054</v>
       </c>
       <c r="C409" t="n">
         <v>-0.008569742999999999</v>
@@ -4947,7 +4947,7 @@
         <v>44078</v>
       </c>
       <c r="B410" t="n">
-        <v>0.003756985</v>
+        <v>-0.009731217</v>
       </c>
       <c r="C410" t="n">
         <v>-0.002987116</v>
@@ -4958,7 +4958,7 @@
         <v>44081</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.006971999</v>
+        <v>-0.02114186</v>
       </c>
       <c r="C411" t="n">
         <v>-0.0140569295</v>
@@ -4969,7 +4969,7 @@
         <v>44082</v>
       </c>
       <c r="B412" t="n">
-        <v>0.01165586</v>
+        <v>0.005358691</v>
       </c>
       <c r="C412" t="n">
         <v>0.0085072755</v>
@@ -4991,7 +4991,7 @@
         <v>44084</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.048755539</v>
+        <v>-0.00056956</v>
       </c>
       <c r="C414" t="n">
         <v>-0.0246625495</v>
@@ -5002,7 +5002,7 @@
         <v>44085</v>
       </c>
       <c r="B415" t="n">
-        <v>0.016320191</v>
+        <v>0.009887674000000001</v>
       </c>
       <c r="C415" t="n">
         <v>0.0131039325</v>
@@ -5013,7 +5013,7 @@
         <v>44088</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02226767</v>
+        <v>0.005136514</v>
       </c>
       <c r="C416" t="n">
         <v>0.013702092</v>
@@ -5024,7 +5024,7 @@
         <v>44089</v>
       </c>
       <c r="B417" t="n">
-        <v>0.002179415</v>
+        <v>0.008048052999999999</v>
       </c>
       <c r="C417" t="n">
         <v>0.005113734</v>
@@ -5035,7 +5035,7 @@
         <v>44090</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.009202833000000001</v>
+        <v>-0.006638438</v>
       </c>
       <c r="C418" t="n">
         <v>-0.0079206355</v>
@@ -5046,7 +5046,7 @@
         <v>44091</v>
       </c>
       <c r="B419" t="n">
-        <v>0.002305783</v>
+        <v>-0.005291455</v>
       </c>
       <c r="C419" t="n">
         <v>-0.001492836</v>
@@ -5057,7 +5057,7 @@
         <v>44092</v>
       </c>
       <c r="B420" t="n">
-        <v>0.012263728</v>
+        <v>0.022529881</v>
       </c>
       <c r="C420" t="n">
         <v>0.0173968045</v>
@@ -5068,7 +5068,7 @@
         <v>44095</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0009302410000000001</v>
+        <v>-0.009638958</v>
       </c>
       <c r="C421" t="n">
         <v>-0.0052845995</v>
@@ -5079,7 +5079,7 @@
         <v>44096</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.014046119</v>
+        <v>-0.011865747</v>
       </c>
       <c r="C422" t="n">
         <v>-0.012955933</v>
@@ -5090,7 +5090,7 @@
         <v>44097</v>
       </c>
       <c r="B423" t="n">
-        <v>0.007595342</v>
+        <v>0.003573631</v>
       </c>
       <c r="C423" t="n">
         <v>0.005584486499999999</v>
@@ -5167,7 +5167,7 @@
         <v>44116</v>
       </c>
       <c r="B430" t="n">
-        <v>0.033984197</v>
+        <v>0.03033803</v>
       </c>
       <c r="C430" t="n">
         <v>0.0321611135</v>
@@ -5178,7 +5178,7 @@
         <v>44117</v>
       </c>
       <c r="B431" t="n">
-        <v>0.006696851</v>
+        <v>0.003326286</v>
       </c>
       <c r="C431" t="n">
         <v>0.0050115685</v>
@@ -5189,7 +5189,7 @@
         <v>44118</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.003206063</v>
+        <v>-0.006633099</v>
       </c>
       <c r="C432" t="n">
         <v>-0.004919581</v>
@@ -5200,7 +5200,7 @@
         <v>44119</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.010402198</v>
+        <v>-0.001740342</v>
       </c>
       <c r="C433" t="n">
         <v>-0.00607127</v>
@@ -5211,7 +5211,7 @@
         <v>44120</v>
       </c>
       <c r="B434" t="n">
-        <v>0.003424277</v>
+        <v>-0.001471242</v>
       </c>
       <c r="C434" t="n">
         <v>0.0009765174999999999</v>
@@ -5486,7 +5486,7 @@
         <v>44155</v>
       </c>
       <c r="B459" t="n">
-        <v>0.004370166</v>
+        <v>0.003104532</v>
       </c>
       <c r="C459" t="n">
         <v>0.003737349</v>
@@ -5497,7 +5497,7 @@
         <v>44158</v>
       </c>
       <c r="B460" t="n">
-        <v>0.001224342</v>
+        <v>0.01248948</v>
       </c>
       <c r="C460" t="n">
         <v>0.006856911</v>
@@ -5508,7 +5508,7 @@
         <v>44159</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.000518228</v>
+        <v>-0.006142184</v>
       </c>
       <c r="C461" t="n">
         <v>-0.003330206</v>
@@ -5519,7 +5519,7 @@
         <v>44160</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.013805314</v>
+        <v>-0.012782841</v>
       </c>
       <c r="C462" t="n">
         <v>-0.0132940775</v>
@@ -5530,7 +5530,7 @@
         <v>44161</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.006836816</v>
+        <v>0.001810577</v>
       </c>
       <c r="C463" t="n">
         <v>-0.0025131195</v>
@@ -5541,7 +5541,7 @@
         <v>44162</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.002633318</v>
+        <v>0.012434732</v>
       </c>
       <c r="C464" t="n">
         <v>0.004900707000000001</v>
@@ -5552,7 +5552,7 @@
         <v>44165</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.004118464</v>
+        <v>-0.003310697</v>
       </c>
       <c r="C465" t="n">
         <v>-0.0037145805</v>
@@ -5596,7 +5596,7 @@
         <v>44169</v>
       </c>
       <c r="B469" t="n">
-        <v>0.002827074</v>
+        <v>0.001751215</v>
       </c>
       <c r="C469" t="n">
         <v>0.0022891445</v>
@@ -5607,7 +5607,7 @@
         <v>44172</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.002811093</v>
+        <v>-0.008622566999999999</v>
       </c>
       <c r="C470" t="n">
         <v>-0.00571683</v>
@@ -5618,7 +5618,7 @@
         <v>44173</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.001075274</v>
+        <v>-0.002460359</v>
       </c>
       <c r="C471" t="n">
         <v>-0.0017678165</v>
@@ -5629,7 +5629,7 @@
         <v>44174</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.020097405</v>
+        <v>-0.013409507</v>
       </c>
       <c r="C472" t="n">
         <v>-0.016753456</v>
@@ -5640,7 +5640,7 @@
         <v>44175</v>
       </c>
       <c r="B473" t="n">
-        <v>-6.91e-05</v>
+        <v>-0.00043978</v>
       </c>
       <c r="C473" t="n">
         <v>-0.00025444</v>
@@ -5651,7 +5651,7 @@
         <v>44176</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.016431344</v>
+        <v>-0.010301679</v>
       </c>
       <c r="C474" t="n">
         <v>-0.0133665115</v>
@@ -5662,7 +5662,7 @@
         <v>44179</v>
       </c>
       <c r="B475" t="n">
-        <v>0.008829612000000001</v>
+        <v>0.009245282</v>
       </c>
       <c r="C475" t="n">
         <v>0.009037447000000001</v>
@@ -5673,7 +5673,7 @@
         <v>44180</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.0007052509999999999</v>
+        <v>0.00208007</v>
       </c>
       <c r="C476" t="n">
         <v>0.0006874094999999999</v>
@@ -5684,7 +5684,7 @@
         <v>44181</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.014683081</v>
+        <v>0.001772866</v>
       </c>
       <c r="C477" t="n">
         <v>-0.0064551075</v>
@@ -5695,7 +5695,7 @@
         <v>44182</v>
       </c>
       <c r="B478" t="n">
-        <v>0.008993477999999999</v>
+        <v>0.012840757</v>
       </c>
       <c r="C478" t="n">
         <v>0.0109171175</v>
@@ -5706,7 +5706,7 @@
         <v>44183</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.004023754</v>
+        <v>-0.00348992</v>
       </c>
       <c r="C479" t="n">
         <v>-0.003756837</v>
@@ -5717,7 +5717,7 @@
         <v>44186</v>
       </c>
       <c r="B480" t="n">
-        <v>0.011780771</v>
+        <v>0.00937442</v>
       </c>
       <c r="C480" t="n">
         <v>0.0105775955</v>
@@ -5728,7 +5728,7 @@
         <v>44187</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.018333558</v>
+        <v>-0.016261048</v>
       </c>
       <c r="C481" t="n">
         <v>-0.017297303</v>
@@ -5739,7 +5739,7 @@
         <v>44188</v>
       </c>
       <c r="B482" t="n">
-        <v>0.006342589</v>
+        <v>0.00853026</v>
       </c>
       <c r="C482" t="n">
         <v>0.0074364245</v>
@@ -5750,7 +5750,7 @@
         <v>44189</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.021054667</v>
+        <v>-0.001419598</v>
       </c>
       <c r="C483" t="n">
         <v>-0.0112371325</v>
@@ -5970,7 +5970,7 @@
         <v>44218</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.010775533</v>
+        <v>0.000863742</v>
       </c>
       <c r="C503" t="n">
         <v>-0.0049558955</v>
@@ -5981,7 +5981,7 @@
         <v>44221</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.016140619</v>
+        <v>0.010080693</v>
       </c>
       <c r="C504" t="n">
         <v>-0.003029962999999999</v>
@@ -5992,7 +5992,7 @@
         <v>44222</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.008849367</v>
+        <v>-0.020077665</v>
       </c>
       <c r="C505" t="n">
         <v>-0.014463516</v>
@@ -6003,7 +6003,7 @@
         <v>44223</v>
       </c>
       <c r="B506" t="n">
-        <v>0.0009880259999999999</v>
+        <v>0.002727315</v>
       </c>
       <c r="C506" t="n">
         <v>0.0018576705</v>
@@ -6014,7 +6014,7 @@
         <v>44224</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.012509798</v>
+        <v>-0.027290269</v>
       </c>
       <c r="C507" t="n">
         <v>-0.0199000335</v>
@@ -6025,7 +6025,7 @@
         <v>44225</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.016568081</v>
+        <v>-0.004682431</v>
       </c>
       <c r="C508" t="n">
         <v>-0.010625256</v>
@@ -6036,7 +6036,7 @@
         <v>44228</v>
       </c>
       <c r="B509" t="n">
-        <v>0.004455504</v>
+        <v>0.012272839</v>
       </c>
       <c r="C509" t="n">
         <v>0.0083641715</v>
@@ -6047,7 +6047,7 @@
         <v>44229</v>
       </c>
       <c r="B510" t="n">
-        <v>0.002219161</v>
+        <v>0.015402089</v>
       </c>
       <c r="C510" t="n">
         <v>0.008810625000000001</v>
@@ -6212,7 +6212,7 @@
         <v>44257</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.006581151</v>
+        <v>-0.012761831</v>
       </c>
       <c r="C525" t="n">
         <v>-0.009671491000000001</v>
@@ -6223,7 +6223,7 @@
         <v>44258</v>
       </c>
       <c r="B526" t="n">
-        <v>0.012705085</v>
+        <v>0.019175606</v>
       </c>
       <c r="C526" t="n">
         <v>0.0159403455</v>
@@ -6234,7 +6234,7 @@
         <v>44259</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.008129846</v>
+        <v>-0.031456349</v>
       </c>
       <c r="C527" t="n">
         <v>-0.0197930975</v>
@@ -6245,7 +6245,7 @@
         <v>44260</v>
       </c>
       <c r="B528" t="n">
-        <v>0.009651986</v>
+        <v>-0.003391592</v>
       </c>
       <c r="C528" t="n">
         <v>0.003130196999999999</v>
@@ -6256,7 +6256,7 @@
         <v>44263</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.012668141</v>
+        <v>-0.034728917</v>
       </c>
       <c r="C529" t="n">
         <v>-0.023698529</v>
@@ -6267,7 +6267,7 @@
         <v>44264</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.026964779</v>
+        <v>-0.02146155</v>
       </c>
       <c r="C530" t="n">
         <v>-0.0242131645</v>
@@ -6278,7 +6278,7 @@
         <v>44265</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.01408693</v>
+        <v>0.006560592</v>
       </c>
       <c r="C531" t="n">
         <v>-0.003763169</v>
@@ -6289,7 +6289,7 @@
         <v>44266</v>
       </c>
       <c r="B532" t="n">
-        <v>0.021594879</v>
+        <v>0.02490271</v>
       </c>
       <c r="C532" t="n">
         <v>0.0232487945</v>
@@ -6300,7 +6300,7 @@
         <v>44267</v>
       </c>
       <c r="B533" t="n">
-        <v>0.00221329</v>
+        <v>0.003541778</v>
       </c>
       <c r="C533" t="n">
         <v>0.002877534</v>
@@ -6311,7 +6311,7 @@
         <v>44270</v>
       </c>
       <c r="B534" t="n">
-        <v>0.000590298</v>
+        <v>-0.021536406</v>
       </c>
       <c r="C534" t="n">
         <v>-0.010473054</v>
@@ -6322,7 +6322,7 @@
         <v>44271</v>
       </c>
       <c r="B535" t="n">
-        <v>0.015283464</v>
+        <v>0.008701801</v>
       </c>
       <c r="C535" t="n">
         <v>0.0119926325</v>
@@ -6333,7 +6333,7 @@
         <v>44272</v>
       </c>
       <c r="B536" t="n">
-        <v>0.005256571</v>
+        <v>0.004231968</v>
       </c>
       <c r="C536" t="n">
         <v>0.0047442695</v>
@@ -6344,7 +6344,7 @@
         <v>44273</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.001239584</v>
+        <v>0.008020219</v>
       </c>
       <c r="C537" t="n">
         <v>0.0033903175</v>
@@ -6355,7 +6355,7 @@
         <v>44274</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.002579095</v>
+        <v>-0.026192819</v>
       </c>
       <c r="C538" t="n">
         <v>-0.014385957</v>
@@ -6366,7 +6366,7 @@
         <v>44277</v>
       </c>
       <c r="B539" t="n">
-        <v>0.017055398</v>
+        <v>0.009998081000000001</v>
       </c>
       <c r="C539" t="n">
         <v>0.0135267395</v>
@@ -6377,7 +6377,7 @@
         <v>44278</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.013055039</v>
+        <v>-0.009472941</v>
       </c>
       <c r="C540" t="n">
         <v>-0.01126399</v>
@@ -6388,7 +6388,7 @@
         <v>44279</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.008373284999999999</v>
+        <v>-0.016082381</v>
       </c>
       <c r="C541" t="n">
         <v>-0.012227833</v>
@@ -6399,7 +6399,7 @@
         <v>44280</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.004678241</v>
+        <v>-0.000474447</v>
       </c>
       <c r="C542" t="n">
         <v>-0.002576344</v>
@@ -6421,7 +6421,7 @@
         <v>44284</v>
       </c>
       <c r="B544" t="n">
-        <v>0.001189023</v>
+        <v>0.001764077</v>
       </c>
       <c r="C544" t="n">
         <v>0.00147655</v>
@@ -6432,7 +6432,7 @@
         <v>44285</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.010261489</v>
+        <v>0.009481467</v>
       </c>
       <c r="C545" t="n">
         <v>-0.000390011</v>
@@ -6443,7 +6443,7 @@
         <v>44286</v>
       </c>
       <c r="B546" t="n">
-        <v>0.002503509</v>
+        <v>-0.009101249</v>
       </c>
       <c r="C546" t="n">
         <v>-0.00329887</v>
@@ -6454,7 +6454,7 @@
         <v>44287</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.000899228</v>
+        <v>0.012363637</v>
       </c>
       <c r="C547" t="n">
         <v>0.0057322045</v>
@@ -6465,7 +6465,7 @@
         <v>44288</v>
       </c>
       <c r="B548" t="n">
-        <v>0.002086763</v>
+        <v>0.009935886999999999</v>
       </c>
       <c r="C548" t="n">
         <v>0.006011325</v>
@@ -6476,7 +6476,7 @@
         <v>44292</v>
       </c>
       <c r="B549" t="n">
-        <v>0.014126778</v>
+        <v>-0.004110213</v>
       </c>
       <c r="C549" t="n">
         <v>0.0050082825</v>
@@ -6487,7 +6487,7 @@
         <v>44293</v>
       </c>
       <c r="B550" t="n">
-        <v>0.006042031</v>
+        <v>-0.007119955</v>
       </c>
       <c r="C550" t="n">
         <v>-0.000538962</v>
@@ -6498,7 +6498,7 @@
         <v>44294</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.009050835</v>
+        <v>0.001658744</v>
       </c>
       <c r="C551" t="n">
         <v>-0.0036960455</v>
@@ -6509,7 +6509,7 @@
         <v>44295</v>
       </c>
       <c r="B552" t="n">
-        <v>0.001964939</v>
+        <v>-0.015036789</v>
       </c>
       <c r="C552" t="n">
         <v>-0.006535925</v>
@@ -6520,7 +6520,7 @@
         <v>44298</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.013078698</v>
+        <v>-0.017395359</v>
       </c>
       <c r="C553" t="n">
         <v>-0.0152370285</v>
@@ -6531,7 +6531,7 @@
         <v>44299</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.007151739</v>
+        <v>-0.001637534</v>
       </c>
       <c r="C554" t="n">
         <v>-0.0043946365</v>
@@ -6542,7 +6542,7 @@
         <v>44300</v>
       </c>
       <c r="B555" t="n">
-        <v>0.011251041</v>
+        <v>0.008296975</v>
       </c>
       <c r="C555" t="n">
         <v>0.009774008000000001</v>
@@ -6553,7 +6553,7 @@
         <v>44301</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.001401221</v>
+        <v>-0.006355383</v>
       </c>
       <c r="C556" t="n">
         <v>-0.003878302</v>
@@ -6564,7 +6564,7 @@
         <v>44302</v>
       </c>
       <c r="B557" t="n">
-        <v>0.018966178</v>
+        <v>0.003476882</v>
       </c>
       <c r="C557" t="n">
         <v>0.01122153</v>
@@ -6575,7 +6575,7 @@
         <v>44305</v>
       </c>
       <c r="B558" t="n">
-        <v>0.012932757</v>
+        <v>0.024331654</v>
       </c>
       <c r="C558" t="n">
         <v>0.0186322055</v>
@@ -6586,7 +6586,7 @@
         <v>44306</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.004062764</v>
+        <v>-0.000717729</v>
       </c>
       <c r="C559" t="n">
         <v>-0.0023902465</v>
@@ -6619,7 +6619,7 @@
         <v>44309</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.009199917</v>
+        <v>0.009079914999999999</v>
       </c>
       <c r="C562" t="n">
         <v>-6.00010000000005e-05</v>
@@ -6630,7 +6630,7 @@
         <v>44312</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.002833925</v>
+        <v>-0.011336136</v>
       </c>
       <c r="C563" t="n">
         <v>-0.007085030500000001</v>
@@ -6641,7 +6641,7 @@
         <v>44313</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.006737284</v>
+        <v>0.002616049</v>
       </c>
       <c r="C564" t="n">
         <v>-0.0020606175</v>
@@ -6652,7 +6652,7 @@
         <v>44314</v>
       </c>
       <c r="B565" t="n">
-        <v>0.000941448</v>
+        <v>0.005642371</v>
       </c>
       <c r="C565" t="n">
         <v>0.0032919095</v>
@@ -6685,7 +6685,7 @@
         <v>44322</v>
       </c>
       <c r="B568" t="n">
-        <v>0.007169769</v>
+        <v>-0.012172291</v>
       </c>
       <c r="C568" t="n">
         <v>-0.002501261</v>
@@ -6817,7 +6817,7 @@
         <v>44340</v>
       </c>
       <c r="B580" t="n">
-        <v>0.005540758</v>
+        <v>0.004175805</v>
       </c>
       <c r="C580" t="n">
         <v>0.0048582815</v>
@@ -6828,7 +6828,7 @@
         <v>44341</v>
       </c>
       <c r="B581" t="n">
-        <v>0.005592506</v>
+        <v>0.031594944</v>
       </c>
       <c r="C581" t="n">
         <v>0.018593725</v>
@@ -6839,7 +6839,7 @@
         <v>44342</v>
       </c>
       <c r="B582" t="n">
-        <v>0.00772147</v>
+        <v>0.000397614</v>
       </c>
       <c r="C582" t="n">
         <v>0.004059542</v>
@@ -6850,7 +6850,7 @@
         <v>44343</v>
       </c>
       <c r="B583" t="n">
-        <v>0.008733236</v>
+        <v>0.003315458</v>
       </c>
       <c r="C583" t="n">
         <v>0.006024347</v>
@@ -6861,7 +6861,7 @@
         <v>44344</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.001567133</v>
+        <v>-0.003211606</v>
       </c>
       <c r="C584" t="n">
         <v>-0.0023893695</v>
@@ -6872,7 +6872,7 @@
         <v>44347</v>
       </c>
       <c r="B585" t="n">
-        <v>0.014448009</v>
+        <v>0.00196971</v>
       </c>
       <c r="C585" t="n">
         <v>0.0082088595</v>
@@ -6883,7 +6883,7 @@
         <v>44348</v>
       </c>
       <c r="B586" t="n">
-        <v>0.008496449</v>
+        <v>0.00189629</v>
       </c>
       <c r="C586" t="n">
         <v>0.0051963695</v>
@@ -6894,7 +6894,7 @@
         <v>44349</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.01005717</v>
+        <v>-0.009679764</v>
       </c>
       <c r="C587" t="n">
         <v>-0.009868467000000001</v>
@@ -6905,7 +6905,7 @@
         <v>44350</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.001676947</v>
+        <v>-0.006557329</v>
       </c>
       <c r="C588" t="n">
         <v>-0.004117138</v>
@@ -6916,7 +6916,7 @@
         <v>44351</v>
       </c>
       <c r="B589" t="n">
-        <v>0.002788583</v>
+        <v>0.005136105</v>
       </c>
       <c r="C589" t="n">
         <v>0.003962344</v>
@@ -7103,7 +7103,7 @@
         <v>44377</v>
       </c>
       <c r="B606" t="n">
-        <v>0.01002687</v>
+        <v>0.006453369</v>
       </c>
       <c r="C606" t="n">
         <v>0.0082401195</v>
@@ -7114,7 +7114,7 @@
         <v>44378</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.01748546</v>
+        <v>0.001076408</v>
       </c>
       <c r="C607" t="n">
         <v>-0.008204526</v>
@@ -7125,7 +7125,7 @@
         <v>44379</v>
       </c>
       <c r="B608" t="n">
-        <v>0.002241642</v>
+        <v>-0.028404692</v>
       </c>
       <c r="C608" t="n">
         <v>-0.013081525</v>
@@ -7136,7 +7136,7 @@
         <v>44382</v>
       </c>
       <c r="B609" t="n">
-        <v>0.017039602</v>
+        <v>0.000920113</v>
       </c>
       <c r="C609" t="n">
         <v>0.008979857500000001</v>
@@ -7147,7 +7147,7 @@
         <v>44383</v>
       </c>
       <c r="B610" t="n">
-        <v>0.000523713</v>
+        <v>-0.000528551</v>
       </c>
       <c r="C610" t="n">
         <v>-2.419000000000032e-06</v>
@@ -7158,7 +7158,7 @@
         <v>44384</v>
       </c>
       <c r="B611" t="n">
-        <v>0.008782826000000001</v>
+        <v>0.011289479</v>
       </c>
       <c r="C611" t="n">
         <v>0.0100361525</v>
@@ -7169,7 +7169,7 @@
         <v>44385</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.003026491</v>
+        <v>-0.010161152</v>
       </c>
       <c r="C612" t="n">
         <v>-0.006593821499999999</v>
@@ -7763,7 +7763,7 @@
         <v>44463</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.023958418</v>
+        <v>-0.0007763960000000001</v>
       </c>
       <c r="C666" t="n">
         <v>-0.012367407</v>
@@ -7774,7 +7774,7 @@
         <v>44466</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.039404113</v>
+        <v>0.005761938</v>
       </c>
       <c r="C667" t="n">
         <v>-0.0168210875</v>
@@ -7785,7 +7785,7 @@
         <v>44467</v>
       </c>
       <c r="B668" t="n">
-        <v>0.005425364</v>
+        <v>0.001324115</v>
       </c>
       <c r="C668" t="n">
         <v>0.0033747395</v>
@@ -7796,7 +7796,7 @@
         <v>44468</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.035071994</v>
+        <v>-0.010217375</v>
       </c>
       <c r="C669" t="n">
         <v>-0.0226446845</v>
@@ -7807,7 +7807,7 @@
         <v>44469</v>
       </c>
       <c r="B670" t="n">
-        <v>0.02916731</v>
+        <v>0.006713898</v>
       </c>
       <c r="C670" t="n">
         <v>0.017940604</v>
@@ -7818,7 +7818,7 @@
         <v>44477</v>
       </c>
       <c r="B671" t="n">
-        <v>0.010125288</v>
+        <v>0.013060687</v>
       </c>
       <c r="C671" t="n">
         <v>0.0115929875</v>
@@ -7829,7 +7829,7 @@
         <v>44480</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.006503002</v>
+        <v>0.001267946</v>
       </c>
       <c r="C672" t="n">
         <v>-0.002617528</v>
@@ -7840,7 +7840,7 @@
         <v>44481</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.020548415</v>
+        <v>-0.010606334</v>
       </c>
       <c r="C673" t="n">
         <v>-0.0155773745</v>
@@ -7851,7 +7851,7 @@
         <v>44482</v>
       </c>
       <c r="B674" t="n">
-        <v>0.000642894</v>
+        <v>0.011522088</v>
       </c>
       <c r="C674" t="n">
         <v>0.006082491</v>
@@ -7862,7 +7862,7 @@
         <v>44483</v>
       </c>
       <c r="B675" t="n">
-        <v>0.010531683</v>
+        <v>-0.005363566</v>
       </c>
       <c r="C675" t="n">
         <v>0.0025840585</v>
@@ -7873,7 +7873,7 @@
         <v>44484</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.009555332999999999</v>
+        <v>0.003764257</v>
       </c>
       <c r="C676" t="n">
         <v>-0.002895538</v>
@@ -7884,7 +7884,7 @@
         <v>44487</v>
       </c>
       <c r="B677" t="n">
-        <v>0.01395781</v>
+        <v>-0.011624461</v>
       </c>
       <c r="C677" t="n">
         <v>0.001166674499999999</v>
@@ -7895,7 +7895,7 @@
         <v>44488</v>
       </c>
       <c r="B678" t="n">
-        <v>0.005994694</v>
+        <v>0.00983592</v>
       </c>
       <c r="C678" t="n">
         <v>0.007915307</v>
@@ -7906,7 +7906,7 @@
         <v>44489</v>
       </c>
       <c r="B679" t="n">
-        <v>0.001807718</v>
+        <v>-0.002547086</v>
       </c>
       <c r="C679" t="n">
         <v>-0.000369684</v>
@@ -7917,7 +7917,7 @@
         <v>44490</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.004217079</v>
+        <v>0.003631432</v>
       </c>
       <c r="C680" t="n">
         <v>-0.0002928235000000002</v>
@@ -7928,7 +7928,7 @@
         <v>44491</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.013322045</v>
+        <v>0.006434598</v>
       </c>
       <c r="C681" t="n">
         <v>-0.0034437235</v>
@@ -7939,7 +7939,7 @@
         <v>44494</v>
       </c>
       <c r="B682" t="n">
-        <v>0.014019351</v>
+        <v>0.003991773</v>
       </c>
       <c r="C682" t="n">
         <v>0.009005562</v>
@@ -7950,7 +7950,7 @@
         <v>44495</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.001661932</v>
+        <v>-0.003298529</v>
       </c>
       <c r="C683" t="n">
         <v>-0.0024802305</v>
@@ -7961,7 +7961,7 @@
         <v>44496</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.012864067</v>
+        <v>-0.013083359</v>
       </c>
       <c r="C684" t="n">
         <v>-0.012973713</v>
@@ -7972,7 +7972,7 @@
         <v>44497</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.02394403</v>
+        <v>-0.006946766</v>
       </c>
       <c r="C685" t="n">
         <v>-0.015445398</v>
@@ -7983,7 +7983,7 @@
         <v>44498</v>
       </c>
       <c r="B686" t="n">
-        <v>0.017844838</v>
+        <v>0.009175747</v>
       </c>
       <c r="C686" t="n">
         <v>0.0135102925</v>
@@ -7994,7 +7994,7 @@
         <v>44501</v>
       </c>
       <c r="B687" t="n">
-        <v>0.017622796</v>
+        <v>-0.003684222</v>
       </c>
       <c r="C687" t="n">
         <v>0.006969286999999999</v>
@@ -8005,7 +8005,7 @@
         <v>44502</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.013723836</v>
+        <v>-0.010395149</v>
       </c>
       <c r="C688" t="n">
         <v>-0.0120594925</v>
@@ -8016,7 +8016,7 @@
         <v>44503</v>
       </c>
       <c r="B689" t="n">
-        <v>0.004390952</v>
+        <v>-0.003870743</v>
       </c>
       <c r="C689" t="n">
         <v>0.0002601045000000001</v>
@@ -8027,7 +8027,7 @@
         <v>44504</v>
       </c>
       <c r="B690" t="n">
-        <v>0.018765694</v>
+        <v>0.009879463999999999</v>
       </c>
       <c r="C690" t="n">
         <v>0.014322579</v>
@@ -8038,7 +8038,7 @@
         <v>44505</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.008684366000000001</v>
+        <v>-0.005421544</v>
       </c>
       <c r="C691" t="n">
         <v>-0.007052955000000001</v>
@@ -8049,7 +8049,7 @@
         <v>44508</v>
       </c>
       <c r="B692" t="n">
-        <v>0.007969954</v>
+        <v>0.001204726</v>
       </c>
       <c r="C692" t="n">
         <v>0.00458734</v>
@@ -8060,7 +8060,7 @@
         <v>44509</v>
       </c>
       <c r="B693" t="n">
-        <v>0.014415472</v>
+        <v>-0.000296008</v>
       </c>
       <c r="C693" t="n">
         <v>0.007059732</v>
@@ -8071,7 +8071,7 @@
         <v>44510</v>
       </c>
       <c r="B694" t="n">
-        <v>0.005828829</v>
+        <v>-0.005271972</v>
       </c>
       <c r="C694" t="n">
         <v>0.0002784285</v>
@@ -8082,7 +8082,7 @@
         <v>44511</v>
       </c>
       <c r="B695" t="n">
-        <v>0.007054668</v>
+        <v>0.016066647</v>
       </c>
       <c r="C695" t="n">
         <v>0.0115606575</v>
@@ -8093,7 +8093,7 @@
         <v>44512</v>
       </c>
       <c r="B696" t="n">
-        <v>0.012055725</v>
+        <v>-0.002098128</v>
       </c>
       <c r="C696" t="n">
         <v>0.0049787985</v>
@@ -8104,7 +8104,7 @@
         <v>44515</v>
       </c>
       <c r="B697" t="n">
-        <v>0.005788294</v>
+        <v>-0.001226829</v>
       </c>
       <c r="C697" t="n">
         <v>0.0022807325</v>
@@ -8115,7 +8115,7 @@
         <v>44516</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.009628655</v>
+        <v>0.000193123</v>
       </c>
       <c r="C698" t="n">
         <v>-0.004717766</v>
@@ -8126,7 +8126,7 @@
         <v>44517</v>
       </c>
       <c r="B699" t="n">
-        <v>0.020741895</v>
+        <v>0.00049839</v>
       </c>
       <c r="C699" t="n">
         <v>0.0106201425</v>
@@ -8137,7 +8137,7 @@
         <v>44518</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.004449915</v>
+        <v>-0.009852296</v>
       </c>
       <c r="C700" t="n">
         <v>-0.007151105499999999</v>
@@ -8148,7 +8148,7 @@
         <v>44519</v>
       </c>
       <c r="B701" t="n">
-        <v>0.011906039</v>
+        <v>0.010839838</v>
       </c>
       <c r="C701" t="n">
         <v>0.0113729385</v>
@@ -8159,7 +8159,7 @@
         <v>44522</v>
       </c>
       <c r="B702" t="n">
-        <v>0.012864119</v>
+        <v>0.00456876</v>
       </c>
       <c r="C702" t="n">
         <v>0.008716439499999999</v>
@@ -8170,7 +8170,7 @@
         <v>44523</v>
       </c>
       <c r="B703" t="n">
-        <v>0.002122492</v>
+        <v>0.000192716</v>
       </c>
       <c r="C703" t="n">
         <v>0.001157604</v>
@@ -8181,7 +8181,7 @@
         <v>44524</v>
       </c>
       <c r="B704" t="n">
-        <v>7.41e-05</v>
+        <v>0.000674123</v>
       </c>
       <c r="C704" t="n">
         <v>0.0003741115</v>
@@ -8192,7 +8192,7 @@
         <v>44525</v>
       </c>
       <c r="B705" t="n">
-        <v>0.001223835</v>
+        <v>-0.004111797</v>
       </c>
       <c r="C705" t="n">
         <v>-0.001443981</v>
@@ -8203,7 +8203,7 @@
         <v>44526</v>
       </c>
       <c r="B706" t="n">
-        <v>0.001671563</v>
+        <v>-0.007416631</v>
       </c>
       <c r="C706" t="n">
         <v>-0.002872534</v>
@@ -8214,7 +8214,7 @@
         <v>44529</v>
       </c>
       <c r="B707" t="n">
-        <v>0.00549158</v>
+        <v>-0.001790797</v>
       </c>
       <c r="C707" t="n">
         <v>0.0018503915</v>
@@ -8225,7 +8225,7 @@
         <v>44530</v>
       </c>
       <c r="B708" t="n">
-        <v>0.008792896</v>
+        <v>-0.003998208</v>
       </c>
       <c r="C708" t="n">
         <v>0.002397344</v>
@@ -8236,7 +8236,7 @@
         <v>44531</v>
       </c>
       <c r="B709" t="n">
-        <v>0.009610585</v>
+        <v>0.002447214</v>
       </c>
       <c r="C709" t="n">
         <v>0.0060288995</v>
@@ -8247,7 +8247,7 @@
         <v>44532</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.01682547</v>
+        <v>0.002541779</v>
       </c>
       <c r="C710" t="n">
         <v>-0.007141845499999999</v>
@@ -8258,7 +8258,7 @@
         <v>44533</v>
       </c>
       <c r="B711" t="n">
-        <v>0.004037086</v>
+        <v>0.009236612999999999</v>
       </c>
       <c r="C711" t="n">
         <v>0.0066368495</v>
@@ -8269,7 +8269,7 @@
         <v>44536</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.017043951</v>
+        <v>-0.001713236</v>
       </c>
       <c r="C712" t="n">
         <v>-0.009378593500000001</v>
@@ -8280,7 +8280,7 @@
         <v>44537</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.014758275</v>
+        <v>0.006025523</v>
       </c>
       <c r="C713" t="n">
         <v>-0.004366376</v>
@@ -8291,7 +8291,7 @@
         <v>44538</v>
       </c>
       <c r="B714" t="n">
-        <v>0.016670183</v>
+        <v>0.014999345</v>
       </c>
       <c r="C714" t="n">
         <v>0.015834764</v>
@@ -8302,7 +8302,7 @@
         <v>44539</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.000257859</v>
+        <v>0.016565545</v>
       </c>
       <c r="C715" t="n">
         <v>0.008153843000000001</v>
@@ -8313,7 +8313,7 @@
         <v>44540</v>
       </c>
       <c r="B716" t="n">
-        <v>0.006142126</v>
+        <v>-0.004641532</v>
       </c>
       <c r="C716" t="n">
         <v>0.000750297</v>
@@ -8324,7 +8324,7 @@
         <v>44543</v>
       </c>
       <c r="B717" t="n">
-        <v>0.006338944</v>
+        <v>0.005674151</v>
       </c>
       <c r="C717" t="n">
         <v>0.0060065475</v>
@@ -8335,7 +8335,7 @@
         <v>44544</v>
       </c>
       <c r="B718" t="n">
-        <v>0.006593637</v>
+        <v>-0.006708642</v>
       </c>
       <c r="C718" t="n">
         <v>-5.750249999999981e-05</v>
@@ -8346,7 +8346,7 @@
         <v>44545</v>
       </c>
       <c r="B719" t="n">
-        <v>0.002464985</v>
+        <v>-0.008673037999999999</v>
       </c>
       <c r="C719" t="n">
         <v>-0.0031040265</v>
@@ -8357,7 +8357,7 @@
         <v>44546</v>
       </c>
       <c r="B720" t="n">
-        <v>0.008606081</v>
+        <v>0.005759805</v>
       </c>
       <c r="C720" t="n">
         <v>0.007182943</v>
@@ -8368,7 +8368,7 @@
         <v>44547</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.008430226000000001</v>
+        <v>-0.015884102</v>
       </c>
       <c r="C721" t="n">
         <v>-0.012157164</v>
@@ -8379,7 +8379,7 @@
         <v>44550</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.012895627</v>
+        <v>-0.015004178</v>
       </c>
       <c r="C722" t="n">
         <v>-0.0139499025</v>
@@ -8390,7 +8390,7 @@
         <v>44551</v>
       </c>
       <c r="B723" t="n">
-        <v>0.015815724</v>
+        <v>0.006775547</v>
       </c>
       <c r="C723" t="n">
         <v>0.0112956355</v>
@@ -8401,7 +8401,7 @@
         <v>44552</v>
       </c>
       <c r="B724" t="n">
-        <v>0.004672902</v>
+        <v>0.000197233</v>
       </c>
       <c r="C724" t="n">
         <v>0.0024350675</v>
@@ -8412,7 +8412,7 @@
         <v>44553</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.004437762</v>
+        <v>0.006976258</v>
       </c>
       <c r="C725" t="n">
         <v>0.001269248</v>
@@ -8423,7 +8423,7 @@
         <v>44554</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.021109455</v>
+        <v>-0.005535552</v>
       </c>
       <c r="C726" t="n">
         <v>-0.0133225035</v>
@@ -8434,7 +8434,7 @@
         <v>44557</v>
       </c>
       <c r="B727" t="n">
-        <v>0.006317583</v>
+        <v>-0.00041068</v>
       </c>
       <c r="C727" t="n">
         <v>0.0029534515</v>
@@ -8445,7 +8445,7 @@
         <v>44558</v>
       </c>
       <c r="B728" t="n">
-        <v>0.0092163</v>
+        <v>0.0074483</v>
       </c>
       <c r="C728" t="n">
         <v>0.008332300000000001</v>
@@ -8456,7 +8456,7 @@
         <v>44559</v>
       </c>
       <c r="B729" t="n">
-        <v>0.0009892799999999999</v>
+        <v>-0.01462561</v>
       </c>
       <c r="C729" t="n">
         <v>-0.006818165</v>
@@ -8467,7 +8467,7 @@
         <v>44560</v>
       </c>
       <c r="B730" t="n">
-        <v>0.010417137</v>
+        <v>0.007787581</v>
       </c>
       <c r="C730" t="n">
         <v>0.009102359000000001</v>
@@ -8478,7 +8478,7 @@
         <v>44561</v>
       </c>
       <c r="B731" t="n">
-        <v>0.005046356</v>
+        <v>0.003832644</v>
       </c>
       <c r="C731" t="n">
         <v>0.0044395</v>
@@ -8489,7 +8489,7 @@
         <v>44565</v>
       </c>
       <c r="B732" t="n">
-        <v>0.011530541</v>
+        <v>-0.004576172</v>
       </c>
       <c r="C732" t="n">
         <v>0.0034771845</v>
@@ -8500,7 +8500,7 @@
         <v>44566</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.018067214</v>
+        <v>-0.010095053</v>
       </c>
       <c r="C733" t="n">
         <v>-0.0140811335</v>
@@ -8511,7 +8511,7 @@
         <v>44567</v>
       </c>
       <c r="B734" t="n">
-        <v>0.010744095</v>
+        <v>-0.01024798</v>
       </c>
       <c r="C734" t="n">
         <v>0.0002480575</v>
@@ -8522,7 +8522,7 @@
         <v>44568</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.023721564</v>
+        <v>0.000858634</v>
       </c>
       <c r="C735" t="n">
         <v>-0.011431465</v>
@@ -8533,7 +8533,7 @@
         <v>44571</v>
       </c>
       <c r="B736" t="n">
-        <v>0.008524143</v>
+        <v>0.004494928</v>
       </c>
       <c r="C736" t="n">
         <v>0.0065095355</v>
@@ -8544,7 +8544,7 @@
         <v>44572</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.004011213</v>
+        <v>-0.009552265000000001</v>
       </c>
       <c r="C737" t="n">
         <v>-0.006781739</v>
@@ -8555,7 +8555,7 @@
         <v>44573</v>
       </c>
       <c r="B738" t="n">
-        <v>0.017112391</v>
+        <v>0.009964038999999999</v>
       </c>
       <c r="C738" t="n">
         <v>0.013538215</v>
@@ -8566,7 +8566,7 @@
         <v>44574</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.009219392999999999</v>
+        <v>-0.016439646</v>
       </c>
       <c r="C739" t="n">
         <v>-0.0128295195</v>
@@ -8577,7 +8577,7 @@
         <v>44575</v>
       </c>
       <c r="B740" t="n">
-        <v>0.000312743</v>
+        <v>-0.008222422</v>
       </c>
       <c r="C740" t="n">
         <v>-0.0039548395</v>
@@ -8588,7 +8588,7 @@
         <v>44578</v>
       </c>
       <c r="B741" t="n">
-        <v>0.018928938</v>
+        <v>0.008577703000000001</v>
       </c>
       <c r="C741" t="n">
         <v>0.0137533205</v>
@@ -8599,7 +8599,7 @@
         <v>44579</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.019416632</v>
+        <v>0.009664008999999999</v>
       </c>
       <c r="C742" t="n">
         <v>-0.0048763115</v>
@@ -8610,7 +8610,7 @@
         <v>44580</v>
       </c>
       <c r="B743" t="n">
-        <v>-7.54e-05</v>
+        <v>-0.006849454</v>
       </c>
       <c r="C743" t="n">
         <v>-0.003462427</v>
@@ -8621,7 +8621,7 @@
         <v>44581</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.030799114</v>
+        <v>0.009022445</v>
       </c>
       <c r="C744" t="n">
         <v>-0.0108883345</v>
@@ -8632,7 +8632,7 @@
         <v>44582</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.013176842</v>
+        <v>-0.009162396</v>
       </c>
       <c r="C745" t="n">
         <v>-0.011169619</v>
@@ -8643,7 +8643,7 @@
         <v>44585</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.000733384</v>
+        <v>0.001553256</v>
       </c>
       <c r="C746" t="n">
         <v>0.000409936</v>
@@ -8654,7 +8654,7 @@
         <v>44586</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.044823288</v>
+        <v>-0.022622213</v>
       </c>
       <c r="C747" t="n">
         <v>-0.0337227505</v>
@@ -8665,7 +8665,7 @@
         <v>44587</v>
       </c>
       <c r="B748" t="n">
-        <v>0.006955741</v>
+        <v>0.007237395</v>
       </c>
       <c r="C748" t="n">
         <v>0.007096567999999999</v>
@@ -8676,7 +8676,7 @@
         <v>44588</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.033472375</v>
+        <v>-0.019615514</v>
       </c>
       <c r="C749" t="n">
         <v>-0.0265439445</v>
@@ -8962,7 +8962,7 @@
         <v>44631</v>
       </c>
       <c r="B775" t="n">
-        <v>0.006714526</v>
+        <v>0.003187705</v>
       </c>
       <c r="C775" t="n">
         <v>0.0049511155</v>
@@ -8973,7 +8973,7 @@
         <v>44634</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.028415949</v>
+        <v>-0.030596386</v>
       </c>
       <c r="C776" t="n">
         <v>-0.0295061675</v>
@@ -8984,7 +8984,7 @@
         <v>44635</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.048493551</v>
+        <v>-0.045738152</v>
       </c>
       <c r="C777" t="n">
         <v>-0.0471158515</v>
@@ -8995,7 +8995,7 @@
         <v>44636</v>
       </c>
       <c r="B778" t="n">
-        <v>0.033156693</v>
+        <v>0.043242251</v>
       </c>
       <c r="C778" t="n">
         <v>0.038199472</v>
@@ -9006,7 +9006,7 @@
         <v>44637</v>
       </c>
       <c r="B779" t="n">
-        <v>0.018062439</v>
+        <v>0.019637394</v>
       </c>
       <c r="C779" t="n">
         <v>0.0188499165</v>
@@ -9017,7 +9017,7 @@
         <v>44638</v>
       </c>
       <c r="B780" t="n">
-        <v>0.011443945</v>
+        <v>0.006656</v>
       </c>
       <c r="C780" t="n">
         <v>0.0090499725</v>
@@ -9028,7 +9028,7 @@
         <v>44641</v>
       </c>
       <c r="B781" t="n">
-        <v>0.016970669</v>
+        <v>-0.001677441</v>
       </c>
       <c r="C781" t="n">
         <v>0.007646614</v>
@@ -9039,7 +9039,7 @@
         <v>44642</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.002527826</v>
+        <v>-0.0008103090000000001</v>
       </c>
       <c r="C782" t="n">
         <v>-0.0016690675</v>
@@ -9050,7 +9050,7 @@
         <v>44643</v>
       </c>
       <c r="B783" t="n">
-        <v>0.003206112</v>
+        <v>0.004987292</v>
       </c>
       <c r="C783" t="n">
         <v>0.004096702</v>
@@ -9061,7 +9061,7 @@
         <v>44644</v>
       </c>
       <c r="B784" t="n">
-        <v>-0.012301291</v>
+        <v>-0.005895288</v>
       </c>
       <c r="C784" t="n">
         <v>-0.0090982895</v>
@@ -9072,7 +9072,7 @@
         <v>44645</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.003860593</v>
+        <v>-0.018049018</v>
       </c>
       <c r="C785" t="n">
         <v>-0.0109548055</v>
@@ -9083,7 +9083,7 @@
         <v>44648</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.004884</v>
+        <v>-0.006254027</v>
       </c>
       <c r="C786" t="n">
         <v>-0.0055690135</v>
@@ -9094,7 +9094,7 @@
         <v>44649</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.008306668999999999</v>
+        <v>-0.003452408</v>
       </c>
       <c r="C787" t="n">
         <v>-0.0058795385</v>
@@ -9105,7 +9105,7 @@
         <v>44650</v>
       </c>
       <c r="B788" t="n">
-        <v>0.01528647</v>
+        <v>0.029015631</v>
       </c>
       <c r="C788" t="n">
         <v>0.0221510505</v>
@@ -9116,7 +9116,7 @@
         <v>44651</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.002026725</v>
+        <v>-0.007405117</v>
       </c>
       <c r="C789" t="n">
         <v>-0.004715921</v>
@@ -9127,7 +9127,7 @@
         <v>44652</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.006291288</v>
+        <v>0.012684422</v>
       </c>
       <c r="C790" t="n">
         <v>0.003196567</v>
@@ -9138,7 +9138,7 @@
         <v>44657</v>
       </c>
       <c r="B791" t="n">
-        <v>0.009779184999999999</v>
+        <v>-0.002880366</v>
       </c>
       <c r="C791" t="n">
         <v>0.003449409499999999</v>
@@ -9149,7 +9149,7 @@
         <v>44658</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.027777653</v>
+        <v>-0.012838494</v>
       </c>
       <c r="C792" t="n">
         <v>-0.0203080735</v>
@@ -9160,7 +9160,7 @@
         <v>44659</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.008862719</v>
+        <v>0.00514768</v>
       </c>
       <c r="C793" t="n">
         <v>-0.0018575195</v>
@@ -9171,7 +9171,7 @@
         <v>44662</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.028833051</v>
+        <v>-0.030891941</v>
       </c>
       <c r="C794" t="n">
         <v>-0.029862496</v>
@@ -9182,7 +9182,7 @@
         <v>44663</v>
       </c>
       <c r="B795" t="n">
-        <v>0.016054149</v>
+        <v>0.019488056</v>
       </c>
       <c r="C795" t="n">
         <v>0.0177711025</v>
@@ -9193,7 +9193,7 @@
         <v>44664</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.021641623</v>
+        <v>-0.009625827999999999</v>
       </c>
       <c r="C796" t="n">
         <v>-0.0156337255</v>
@@ -9204,7 +9204,7 @@
         <v>44665</v>
       </c>
       <c r="B797" t="n">
-        <v>0.009241229</v>
+        <v>0.012520457</v>
       </c>
       <c r="C797" t="n">
         <v>0.010880843</v>
@@ -9215,7 +9215,7 @@
         <v>44666</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.022937649</v>
+        <v>-0.0006730660000000001</v>
       </c>
       <c r="C798" t="n">
         <v>-0.0118053575</v>
@@ -9226,7 +9226,7 @@
         <v>44669</v>
       </c>
       <c r="B799" t="n">
-        <v>0.008988447</v>
+        <v>-0.00533878</v>
       </c>
       <c r="C799" t="n">
         <v>0.0018248335</v>
@@ -9237,7 +9237,7 @@
         <v>44670</v>
       </c>
       <c r="B800" t="n">
-        <v>0.008391599</v>
+        <v>-0.00755636</v>
       </c>
       <c r="C800" t="n">
         <v>0.0004176194999999999</v>
@@ -9248,7 +9248,7 @@
         <v>44671</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.01109155</v>
+        <v>-0.015505278</v>
       </c>
       <c r="C801" t="n">
         <v>-0.013298414</v>
@@ -9259,7 +9259,7 @@
         <v>44672</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.043077597</v>
+        <v>-0.018413851</v>
       </c>
       <c r="C802" t="n">
         <v>-0.030745724</v>
@@ -9270,7 +9270,7 @@
         <v>44673</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.014737117</v>
+        <v>0.004359495</v>
       </c>
       <c r="C803" t="n">
         <v>-0.005188811</v>
@@ -9281,7 +9281,7 @@
         <v>44676</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.079868656</v>
+        <v>-0.049420572</v>
       </c>
       <c r="C804" t="n">
         <v>-0.064644614</v>
@@ -9292,7 +9292,7 @@
         <v>44677</v>
       </c>
       <c r="B805" t="n">
-        <v>-0.039236765</v>
+        <v>-0.008071718</v>
       </c>
       <c r="C805" t="n">
         <v>-0.0236542415</v>
@@ -9347,7 +9347,7 @@
         <v>44687</v>
       </c>
       <c r="B810" t="n">
-        <v>-0.025284261</v>
+        <v>-0.008701794000000001</v>
       </c>
       <c r="C810" t="n">
         <v>-0.0169930275</v>
@@ -9358,7 +9358,7 @@
         <v>44690</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.008027650000000001</v>
+        <v>0.019234389</v>
       </c>
       <c r="C811" t="n">
         <v>0.0056033695</v>
@@ -9369,7 +9369,7 @@
         <v>44691</v>
       </c>
       <c r="B812" t="n">
-        <v>0.010943313</v>
+        <v>0.018968362</v>
       </c>
       <c r="C812" t="n">
         <v>0.0149558375</v>
@@ -10480,7 +10480,7 @@
         <v>44834</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.014586524</v>
+        <v>-0.005815852</v>
       </c>
       <c r="C913" t="n">
         <v>-0.010201188</v>
@@ -10491,7 +10491,7 @@
         <v>44844</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.017879201</v>
+        <v>-0.022063425</v>
       </c>
       <c r="C914" t="n">
         <v>-0.019971313</v>
@@ -10502,7 +10502,7 @@
         <v>44845</v>
       </c>
       <c r="B915" t="n">
-        <v>0.011560718</v>
+        <v>0.001814113</v>
       </c>
       <c r="C915" t="n">
         <v>0.0066874155</v>
@@ -10513,7 +10513,7 @@
         <v>44846</v>
       </c>
       <c r="B916" t="n">
-        <v>0.031785258</v>
+        <v>0.015188964</v>
       </c>
       <c r="C916" t="n">
         <v>0.023487111</v>
@@ -10524,7 +10524,7 @@
         <v>44847</v>
       </c>
       <c r="B917" t="n">
-        <v>0.009538138999999999</v>
+        <v>-0.008359128</v>
       </c>
       <c r="C917" t="n">
         <v>0.0005895054999999995</v>
@@ -10535,7 +10535,7 @@
         <v>44848</v>
       </c>
       <c r="B918" t="n">
-        <v>0.023928784</v>
+        <v>0.022170908</v>
       </c>
       <c r="C918" t="n">
         <v>0.023049846</v>
@@ -10678,7 +10678,7 @@
         <v>44867</v>
       </c>
       <c r="B931" t="n">
-        <v>0.014275258</v>
+        <v>0.012006005</v>
       </c>
       <c r="C931" t="n">
         <v>0.0131406315</v>
@@ -10843,7 +10843,7 @@
         <v>44888</v>
       </c>
       <c r="B946" t="n">
-        <v>0.001049456</v>
+        <v>-0.00664353</v>
       </c>
       <c r="C946" t="n">
         <v>-0.002797037</v>
@@ -10854,7 +10854,7 @@
         <v>44889</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.004430999</v>
+        <v>0.005384044</v>
       </c>
       <c r="C947" t="n">
         <v>0.0004765225000000002</v>
@@ -10865,7 +10865,7 @@
         <v>44890</v>
       </c>
       <c r="B948" t="n">
-        <v>0.00504902</v>
+        <v>-0.013438697</v>
       </c>
       <c r="C948" t="n">
         <v>-0.004194838499999999</v>
@@ -10876,7 +10876,7 @@
         <v>44893</v>
       </c>
       <c r="B949" t="n">
-        <v>-0.011264968</v>
+        <v>-0.003077373</v>
       </c>
       <c r="C949" t="n">
         <v>-0.0071711705</v>
@@ -10887,7 +10887,7 @@
         <v>44894</v>
       </c>
       <c r="B950" t="n">
-        <v>0.030852537</v>
+        <v>0.017440559</v>
       </c>
       <c r="C950" t="n">
         <v>0.024146548</v>
@@ -10898,7 +10898,7 @@
         <v>44895</v>
       </c>
       <c r="B951" t="n">
-        <v>0.001198959</v>
+        <v>0.000735853</v>
       </c>
       <c r="C951" t="n">
         <v>0.0009674060000000001</v>
@@ -10909,7 +10909,7 @@
         <v>44896</v>
       </c>
       <c r="B952" t="n">
-        <v>0.01083099</v>
+        <v>0.006692382</v>
       </c>
       <c r="C952" t="n">
         <v>0.008761686000000001</v>
@@ -10920,7 +10920,7 @@
         <v>44897</v>
       </c>
       <c r="B953" t="n">
-        <v>-0.006116127</v>
+        <v>0.007834653</v>
       </c>
       <c r="C953" t="n">
         <v>0.0008592630000000003</v>
@@ -10931,7 +10931,7 @@
         <v>44900</v>
       </c>
       <c r="B954" t="n">
-        <v>0.01961486</v>
+        <v>0.004693726</v>
       </c>
       <c r="C954" t="n">
         <v>0.012154293</v>
@@ -10942,7 +10942,7 @@
         <v>44901</v>
       </c>
       <c r="B955" t="n">
-        <v>0.005402247</v>
+        <v>-0.007228292</v>
       </c>
       <c r="C955" t="n">
         <v>-0.0009130225</v>
@@ -11063,7 +11063,7 @@
         <v>44916</v>
       </c>
       <c r="B966" t="n">
-        <v>0.000397256</v>
+        <v>-0.008617761</v>
       </c>
       <c r="C966" t="n">
         <v>-0.0041102525</v>
@@ -11074,7 +11074,7 @@
         <v>44917</v>
       </c>
       <c r="B967" t="n">
-        <v>0.001433115</v>
+        <v>-0.016710503</v>
       </c>
       <c r="C967" t="n">
         <v>-0.007638694000000001</v>
@@ -11085,7 +11085,7 @@
         <v>44918</v>
       </c>
       <c r="B968" t="n">
-        <v>-0.002035752</v>
+        <v>-0.004672292</v>
       </c>
       <c r="C968" t="n">
         <v>-0.003354022</v>
@@ -11096,7 +11096,7 @@
         <v>44921</v>
       </c>
       <c r="B969" t="n">
-        <v>0.003988774</v>
+        <v>0.021031872</v>
       </c>
       <c r="C969" t="n">
         <v>0.012510323</v>
@@ -11107,7 +11107,7 @@
         <v>44922</v>
       </c>
       <c r="B970" t="n">
-        <v>0.011542977</v>
+        <v>0.004384846</v>
       </c>
       <c r="C970" t="n">
         <v>0.0079639115</v>
@@ -11118,7 +11118,7 @@
         <v>44923</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.004267033</v>
+        <v>-0.013014995</v>
       </c>
       <c r="C971" t="n">
         <v>-0.008641013999999999</v>
@@ -11129,7 +11129,7 @@
         <v>44924</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.003762001</v>
+        <v>-0.005174034</v>
       </c>
       <c r="C972" t="n">
         <v>-0.0044680175</v>
@@ -11140,7 +11140,7 @@
         <v>44925</v>
       </c>
       <c r="B973" t="n">
-        <v>0.003871988</v>
+        <v>0.008407589</v>
       </c>
       <c r="C973" t="n">
         <v>0.0061397885</v>
@@ -11151,7 +11151,7 @@
         <v>44929</v>
       </c>
       <c r="B974" t="n">
-        <v>0.004201172</v>
+        <v>0.026147178</v>
       </c>
       <c r="C974" t="n">
         <v>0.015174175</v>
@@ -11162,7 +11162,7 @@
         <v>44930</v>
       </c>
       <c r="B975" t="n">
-        <v>0.001298516</v>
+        <v>0.004984272</v>
       </c>
       <c r="C975" t="n">
         <v>0.003141394</v>
@@ -11173,7 +11173,7 @@
         <v>44931</v>
       </c>
       <c r="B976" t="n">
-        <v>0.019427566</v>
+        <v>0.004812196</v>
       </c>
       <c r="C976" t="n">
         <v>0.012119881</v>
@@ -11184,7 +11184,7 @@
         <v>44932</v>
       </c>
       <c r="B977" t="n">
-        <v>0.003102018</v>
+        <v>-0.001624278</v>
       </c>
       <c r="C977" t="n">
         <v>0.0007388699999999999</v>
@@ -11569,7 +11569,7 @@
         <v>44988</v>
       </c>
       <c r="B1012" t="n">
-        <v>-0.001490741</v>
+        <v>0.003111806</v>
       </c>
       <c r="C1012" t="n">
         <v>0.0008105324999999999</v>
@@ -11580,7 +11580,7 @@
         <v>44991</v>
       </c>
       <c r="B1013" t="n">
-        <v>0.001663118</v>
+        <v>-0.005215067</v>
       </c>
       <c r="C1013" t="n">
         <v>-0.0017759745</v>
@@ -11855,7 +11855,7 @@
         <v>45027</v>
       </c>
       <c r="B1038" t="n">
-        <v>0.003435719</v>
+        <v>-0.001136203</v>
       </c>
       <c r="C1038" t="n">
         <v>0.001149758</v>
@@ -11866,7 +11866,7 @@
         <v>45028</v>
       </c>
       <c r="B1039" t="n">
-        <v>0.011644076</v>
+        <v>-0.000697609</v>
       </c>
       <c r="C1039" t="n">
         <v>0.0054732335</v>
@@ -11877,7 +11877,7 @@
         <v>45029</v>
       </c>
       <c r="B1040" t="n">
-        <v>-0.006127264</v>
+        <v>-0.006909205</v>
       </c>
       <c r="C1040" t="n">
         <v>-0.0065182345</v>
@@ -11888,7 +11888,7 @@
         <v>45030</v>
       </c>
       <c r="B1041" t="n">
-        <v>0.00182828</v>
+        <v>0.005657489</v>
       </c>
       <c r="C1041" t="n">
         <v>0.0037428845</v>
@@ -11899,7 +11899,7 @@
         <v>45033</v>
       </c>
       <c r="B1042" t="n">
-        <v>-0.002946853</v>
+        <v>0.01402366</v>
       </c>
       <c r="C1042" t="n">
         <v>0.005538403500000001</v>
@@ -11910,7 +11910,7 @@
         <v>45034</v>
       </c>
       <c r="B1043" t="n">
-        <v>-0.006263903</v>
+        <v>0.00304826</v>
       </c>
       <c r="C1043" t="n">
         <v>-0.0016078215</v>
@@ -11921,7 +11921,7 @@
         <v>45035</v>
       </c>
       <c r="B1044" t="n">
-        <v>-0.00146399</v>
+        <v>-0.009003559</v>
       </c>
       <c r="C1044" t="n">
         <v>-0.0052337745</v>
@@ -11932,7 +11932,7 @@
         <v>45036</v>
       </c>
       <c r="B1045" t="n">
-        <v>-0.002458433</v>
+        <v>-0.002797802</v>
       </c>
       <c r="C1045" t="n">
         <v>-0.0026281175</v>
@@ -11943,7 +11943,7 @@
         <v>45037</v>
       </c>
       <c r="B1046" t="n">
-        <v>-0.02951031</v>
+        <v>-0.019560327</v>
       </c>
       <c r="C1046" t="n">
         <v>-0.0245353185</v>
@@ -11954,7 +11954,7 @@
         <v>45040</v>
       </c>
       <c r="B1047" t="n">
-        <v>-0.001654841</v>
+        <v>-0.012380277</v>
       </c>
       <c r="C1047" t="n">
         <v>-0.007017559</v>
@@ -11965,7 +11965,7 @@
         <v>45041</v>
       </c>
       <c r="B1048" t="n">
-        <v>-0.021653849</v>
+        <v>-0.005016041</v>
       </c>
       <c r="C1048" t="n">
         <v>-0.013334945</v>
@@ -11976,7 +11976,7 @@
         <v>45042</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.012760122</v>
+        <v>-0.000866462</v>
       </c>
       <c r="C1049" t="n">
         <v>0.00594683</v>
@@ -11987,7 +11987,7 @@
         <v>45043</v>
       </c>
       <c r="B1050" t="n">
-        <v>-0.006147937</v>
+        <v>0.007371682</v>
       </c>
       <c r="C1050" t="n">
         <v>0.0006118725</v>
@@ -11998,7 +11998,7 @@
         <v>45044</v>
       </c>
       <c r="B1051" t="n">
-        <v>0.024176373</v>
+        <v>0.010196347</v>
       </c>
       <c r="C1051" t="n">
         <v>0.01718636</v>
@@ -12009,7 +12009,7 @@
         <v>45050</v>
       </c>
       <c r="B1052" t="n">
-        <v>0.008392256000000001</v>
+        <v>0.000288229</v>
       </c>
       <c r="C1052" t="n">
         <v>0.0043402425</v>
@@ -12020,7 +12020,7 @@
         <v>45051</v>
       </c>
       <c r="B1053" t="n">
-        <v>-0.009881295999999999</v>
+        <v>-0.00331734</v>
       </c>
       <c r="C1053" t="n">
         <v>-0.006599318</v>
@@ -12031,7 +12031,7 @@
         <v>45054</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.005790971</v>
+        <v>0.011398157</v>
       </c>
       <c r="C1054" t="n">
         <v>0.008594564000000001</v>
@@ -12042,7 +12042,7 @@
         <v>45055</v>
       </c>
       <c r="B1055" t="n">
-        <v>-0.018242519</v>
+        <v>-0.008562612000000001</v>
       </c>
       <c r="C1055" t="n">
         <v>-0.0134025655</v>
@@ -12053,7 +12053,7 @@
         <v>45056</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.006796804</v>
+        <v>-0.00769783</v>
       </c>
       <c r="C1056" t="n">
         <v>-0.000450513</v>
@@ -13043,7 +13043,7 @@
         <v>45184</v>
       </c>
       <c r="B1146" t="n">
-        <v>0.001488315</v>
+        <v>-0.006624092</v>
       </c>
       <c r="C1146" t="n">
         <v>-0.0025678885</v>
@@ -13054,7 +13054,7 @@
         <v>45187</v>
       </c>
       <c r="B1147" t="n">
-        <v>0.006005682</v>
+        <v>0.005105295</v>
       </c>
       <c r="C1147" t="n">
         <v>0.005555488500000001</v>
@@ -13065,7 +13065,7 @@
         <v>45188</v>
       </c>
       <c r="B1148" t="n">
-        <v>-0.012850717</v>
+        <v>-0.001933868</v>
       </c>
       <c r="C1148" t="n">
         <v>-0.0073922925</v>
@@ -13076,7 +13076,7 @@
         <v>45189</v>
       </c>
       <c r="B1149" t="n">
-        <v>-0.008652366</v>
+        <v>-0.003981264</v>
       </c>
       <c r="C1149" t="n">
         <v>-0.006316815</v>
@@ -13087,7 +13087,7 @@
         <v>45190</v>
       </c>
       <c r="B1150" t="n">
-        <v>-0.006601319</v>
+        <v>-0.008971339</v>
       </c>
       <c r="C1150" t="n">
         <v>-0.007786329</v>
@@ -13098,7 +13098,7 @@
         <v>45191</v>
       </c>
       <c r="B1151" t="n">
-        <v>0.021916112</v>
+        <v>0.018104534</v>
       </c>
       <c r="C1151" t="n">
         <v>0.020010323</v>
@@ -13109,7 +13109,7 @@
         <v>45194</v>
       </c>
       <c r="B1152" t="n">
-        <v>-0.002448525</v>
+        <v>-0.006506937</v>
       </c>
       <c r="C1152" t="n">
         <v>-0.004477731</v>
@@ -13120,7 +13120,7 @@
         <v>45195</v>
       </c>
       <c r="B1153" t="n">
-        <v>-0.002927616</v>
+        <v>-0.005844742</v>
       </c>
       <c r="C1153" t="n">
         <v>-0.004386179</v>
@@ -13131,7 +13131,7 @@
         <v>45196</v>
       </c>
       <c r="B1154" t="n">
-        <v>0.004049838</v>
+        <v>0.002058603</v>
       </c>
       <c r="C1154" t="n">
         <v>0.0030542205</v>
@@ -13142,7 +13142,7 @@
         <v>45197</v>
       </c>
       <c r="B1155" t="n">
-        <v>0.01346497</v>
+        <v>-0.002966576</v>
       </c>
       <c r="C1155" t="n">
         <v>0.005249197</v>
@@ -13153,7 +13153,7 @@
         <v>45208</v>
       </c>
       <c r="B1156" t="n">
-        <v>-0.0030073</v>
+        <v>-0.001298273</v>
       </c>
       <c r="C1156" t="n">
         <v>-0.0021527865</v>
@@ -13318,7 +13318,7 @@
         <v>45229</v>
       </c>
       <c r="B1171" t="n">
-        <v>0.014447337</v>
+        <v>0.006003478</v>
       </c>
       <c r="C1171" t="n">
         <v>0.0102254075</v>
@@ -13329,7 +13329,7 @@
         <v>45230</v>
       </c>
       <c r="B1172" t="n">
-        <v>-0.006006513</v>
+        <v>-0.003143671</v>
       </c>
       <c r="C1172" t="n">
         <v>-0.004575091999999999</v>
@@ -13340,7 +13340,7 @@
         <v>45231</v>
       </c>
       <c r="B1173" t="n">
-        <v>0.002875902</v>
+        <v>-0.000413939</v>
       </c>
       <c r="C1173" t="n">
         <v>0.0012309815</v>
@@ -13351,7 +13351,7 @@
         <v>45232</v>
       </c>
       <c r="B1174" t="n">
-        <v>-0.011246804</v>
+        <v>-0.004715142</v>
       </c>
       <c r="C1174" t="n">
         <v>-0.007980972999999999</v>
@@ -14418,7 +14418,7 @@
         <v>45378</v>
       </c>
       <c r="B1271" t="n">
-        <v>-0.036117794</v>
+        <v>-0.011558416</v>
       </c>
       <c r="C1271" t="n">
         <v>-0.023838105</v>
@@ -14429,7 +14429,7 @@
         <v>45379</v>
       </c>
       <c r="B1272" t="n">
-        <v>0.026927278</v>
+        <v>0.00518964</v>
       </c>
       <c r="C1272" t="n">
         <v>0.016058459</v>
@@ -14440,7 +14440,7 @@
         <v>45380</v>
       </c>
       <c r="B1273" t="n">
-        <v>0.013074368</v>
+        <v>0.004691754</v>
       </c>
       <c r="C1273" t="n">
         <v>0.008883060999999999</v>
@@ -14451,7 +14451,7 @@
         <v>45383</v>
       </c>
       <c r="B1274" t="n">
-        <v>0.020532188</v>
+        <v>0.016441713</v>
       </c>
       <c r="C1274" t="n">
         <v>0.0184869505</v>
@@ -14462,7 +14462,7 @@
         <v>45384</v>
       </c>
       <c r="B1275" t="n">
-        <v>-0.004406384</v>
+        <v>-0.004163563</v>
       </c>
       <c r="C1275" t="n">
         <v>-0.004284973500000001</v>
@@ -14473,7 +14473,7 @@
         <v>45385</v>
       </c>
       <c r="B1276" t="n">
-        <v>-0.010807458</v>
+        <v>-0.003595075</v>
       </c>
       <c r="C1276" t="n">
         <v>-0.0072012665</v>
@@ -14484,7 +14484,7 @@
         <v>45390</v>
       </c>
       <c r="B1277" t="n">
-        <v>-0.022475625</v>
+        <v>-0.008799645</v>
       </c>
       <c r="C1277" t="n">
         <v>-0.015637635</v>
@@ -14495,7 +14495,7 @@
         <v>45391</v>
       </c>
       <c r="B1278" t="n">
-        <v>0.013624573</v>
+        <v>-0.000825866</v>
       </c>
       <c r="C1278" t="n">
         <v>0.0063993535</v>
@@ -14506,7 +14506,7 @@
         <v>45392</v>
       </c>
       <c r="B1279" t="n">
-        <v>-0.023377651</v>
+        <v>-0.008144504</v>
       </c>
       <c r="C1279" t="n">
         <v>-0.0157610775</v>
@@ -14517,7 +14517,7 @@
         <v>45393</v>
       </c>
       <c r="B1280" t="n">
-        <v>0.002252782</v>
+        <v>-0.000132365</v>
       </c>
       <c r="C1280" t="n">
         <v>0.0010602085</v>
@@ -14528,7 +14528,7 @@
         <v>45394</v>
       </c>
       <c r="B1281" t="n">
-        <v>-0.007178231</v>
+        <v>-0.008106112</v>
       </c>
       <c r="C1281" t="n">
         <v>-0.0076421715</v>
@@ -14539,7 +14539,7 @@
         <v>45397</v>
       </c>
       <c r="B1282" t="n">
-        <v>-0.040710739</v>
+        <v>0.021070309</v>
       </c>
       <c r="C1282" t="n">
         <v>-0.009820215000000002</v>
@@ -14550,7 +14550,7 @@
         <v>45398</v>
       </c>
       <c r="B1283" t="n">
-        <v>-0.07158202800000001</v>
+        <v>-0.010696108</v>
       </c>
       <c r="C1283" t="n">
         <v>-0.041139068</v>
@@ -14561,7 +14561,7 @@
         <v>45399</v>
       </c>
       <c r="B1284" t="n">
-        <v>0.066555905</v>
+        <v>0.015461871</v>
       </c>
       <c r="C1284" t="n">
         <v>0.041008888</v>
@@ -14572,7 +14572,7 @@
         <v>45400</v>
       </c>
       <c r="B1285" t="n">
-        <v>-0.001493227</v>
+        <v>0.001233746</v>
       </c>
       <c r="C1285" t="n">
         <v>-0.0001297405</v>
@@ -14583,7 +14583,7 @@
         <v>45401</v>
       </c>
       <c r="B1286" t="n">
-        <v>-0.004053497</v>
+        <v>-0.007882762999999999</v>
       </c>
       <c r="C1286" t="n">
         <v>-0.005968129999999999</v>
@@ -14594,7 +14594,7 @@
         <v>45404</v>
       </c>
       <c r="B1287" t="n">
-        <v>-0.008043847</v>
+        <v>-0.003037388</v>
       </c>
       <c r="C1287" t="n">
         <v>-0.0055406175</v>
@@ -14605,7 +14605,7 @@
         <v>45405</v>
       </c>
       <c r="B1288" t="n">
-        <v>0.007219875</v>
+        <v>-0.006989597</v>
       </c>
       <c r="C1288" t="n">
         <v>0.0001151389999999998</v>
@@ -14616,7 +14616,7 @@
         <v>45406</v>
       </c>
       <c r="B1289" t="n">
-        <v>0.022649204</v>
+        <v>0.004391333</v>
       </c>
       <c r="C1289" t="n">
         <v>0.0135202685</v>
@@ -14627,7 +14627,7 @@
         <v>45407</v>
       </c>
       <c r="B1290" t="n">
-        <v>0.002554911</v>
+        <v>0.002458924</v>
       </c>
       <c r="C1290" t="n">
         <v>0.0025069175</v>
@@ -14638,7 +14638,7 @@
         <v>45408</v>
       </c>
       <c r="B1291" t="n">
-        <v>0.015325222</v>
+        <v>0.015292634</v>
       </c>
       <c r="C1291" t="n">
         <v>0.015308928</v>
@@ -14649,7 +14649,7 @@
         <v>45411</v>
       </c>
       <c r="B1292" t="n">
-        <v>0.027061737</v>
+        <v>0.011060499</v>
       </c>
       <c r="C1292" t="n">
         <v>0.019061118</v>
@@ -14660,7 +14660,7 @@
         <v>45412</v>
       </c>
       <c r="B1293" t="n">
-        <v>-0.005947557</v>
+        <v>-0.005385919</v>
       </c>
       <c r="C1293" t="n">
         <v>-0.005666738</v>
@@ -14671,7 +14671,7 @@
         <v>45418</v>
       </c>
       <c r="B1294" t="n">
-        <v>0.020481984</v>
+        <v>0.01483811</v>
       </c>
       <c r="C1294" t="n">
         <v>0.017660047</v>
@@ -14682,7 +14682,7 @@
         <v>45419</v>
       </c>
       <c r="B1295" t="n">
-        <v>0.006457557</v>
+        <v>0.000309168</v>
       </c>
       <c r="C1295" t="n">
         <v>0.0033833625</v>
@@ -14693,7 +14693,7 @@
         <v>45420</v>
       </c>
       <c r="B1296" t="n">
-        <v>-0.01329042</v>
+        <v>-0.007866695999999999</v>
       </c>
       <c r="C1296" t="n">
         <v>-0.010578558</v>
@@ -14704,7 +14704,7 @@
         <v>45421</v>
       </c>
       <c r="B1297" t="n">
-        <v>0.01165212</v>
+        <v>0.00945884</v>
       </c>
       <c r="C1297" t="n">
         <v>0.01055548</v>
@@ -14715,7 +14715,7 @@
         <v>45422</v>
       </c>
       <c r="B1298" t="n">
-        <v>-0.011246046</v>
+        <v>0.000468296</v>
       </c>
       <c r="C1298" t="n">
         <v>-0.005388875</v>
@@ -14726,7 +14726,7 @@
         <v>45425</v>
       </c>
       <c r="B1299" t="n">
-        <v>-0.017138926</v>
+        <v>-0.0004327</v>
       </c>
       <c r="C1299" t="n">
         <v>-0.008785813</v>
@@ -14737,7 +14737,7 @@
         <v>45426</v>
       </c>
       <c r="B1300" t="n">
-        <v>0.00844871</v>
+        <v>-0.002086206</v>
       </c>
       <c r="C1300" t="n">
         <v>0.003181252</v>
@@ -14748,7 +14748,7 @@
         <v>45427</v>
       </c>
       <c r="B1301" t="n">
-        <v>-0.008547542999999999</v>
+        <v>-0.008473916999999999</v>
       </c>
       <c r="C1301" t="n">
         <v>-0.008510729999999999</v>
@@ -14759,7 +14759,7 @@
         <v>45428</v>
       </c>
       <c r="B1302" t="n">
-        <v>0.004387071</v>
+        <v>0.003944589</v>
       </c>
       <c r="C1302" t="n">
         <v>0.004165830000000001</v>
@@ -14770,7 +14770,7 @@
         <v>45429</v>
       </c>
       <c r="B1303" t="n">
-        <v>0.01061968</v>
+        <v>0.010331508</v>
       </c>
       <c r="C1303" t="n">
         <v>0.010475594</v>
@@ -14781,7 +14781,7 @@
         <v>45432</v>
       </c>
       <c r="B1304" t="n">
-        <v>0.004833933</v>
+        <v>0.003532574</v>
       </c>
       <c r="C1304" t="n">
         <v>0.0041832535</v>
@@ -14792,7 +14792,7 @@
         <v>45433</v>
       </c>
       <c r="B1305" t="n">
-        <v>-0.009943469</v>
+        <v>-0.00401012</v>
       </c>
       <c r="C1305" t="n">
         <v>-0.006976794499999999</v>
@@ -14803,7 +14803,7 @@
         <v>45434</v>
       </c>
       <c r="B1306" t="n">
-        <v>0.003934004</v>
+        <v>0.002255043</v>
       </c>
       <c r="C1306" t="n">
         <v>0.0030945235</v>
@@ -14814,7 +14814,7 @@
         <v>45435</v>
       </c>
       <c r="B1307" t="n">
-        <v>-0.021808489</v>
+        <v>-0.011578197</v>
       </c>
       <c r="C1307" t="n">
         <v>-0.016693343</v>
@@ -14825,7 +14825,7 @@
         <v>45436</v>
       </c>
       <c r="B1308" t="n">
-        <v>-0.010151384</v>
+        <v>-0.011070457</v>
       </c>
       <c r="C1308" t="n">
         <v>-0.0106109205</v>
@@ -14836,7 +14836,7 @@
         <v>45439</v>
       </c>
       <c r="B1309" t="n">
-        <v>0.005648445</v>
+        <v>0.009505131999999999</v>
       </c>
       <c r="C1309" t="n">
         <v>0.0075767885</v>
@@ -15133,7 +15133,7 @@
         <v>45477</v>
       </c>
       <c r="B1336" t="n">
-        <v>-0.005082066</v>
+        <v>-0.027502791</v>
       </c>
       <c r="C1336" t="n">
         <v>-0.0162924285</v>
@@ -15144,7 +15144,7 @@
         <v>45478</v>
       </c>
       <c r="B1337" t="n">
-        <v>-0.004281225</v>
+        <v>0.01057563</v>
       </c>
       <c r="C1337" t="n">
         <v>0.003147202500000001</v>
@@ -15155,7 +15155,7 @@
         <v>45481</v>
       </c>
       <c r="B1338" t="n">
-        <v>-0.008539662999999999</v>
+        <v>-0.028649921</v>
       </c>
       <c r="C1338" t="n">
         <v>-0.018594792</v>
@@ -15166,7 +15166,7 @@
         <v>45482</v>
       </c>
       <c r="B1339" t="n">
-        <v>0.011185591</v>
+        <v>0.020455617</v>
       </c>
       <c r="C1339" t="n">
         <v>0.015820604</v>
@@ -15177,7 +15177,7 @@
         <v>45483</v>
       </c>
       <c r="B1340" t="n">
-        <v>-0.003152906</v>
+        <v>-0.007768587</v>
       </c>
       <c r="C1340" t="n">
         <v>-0.0054607465</v>
@@ -15188,7 +15188,7 @@
         <v>45484</v>
       </c>
       <c r="B1341" t="n">
-        <v>0.011432981</v>
+        <v>0.033641167</v>
       </c>
       <c r="C1341" t="n">
         <v>0.022537074</v>
@@ -15199,7 +15199,7 @@
         <v>45485</v>
       </c>
       <c r="B1342" t="n">
-        <v>0.001220356</v>
+        <v>-0.005108932</v>
       </c>
       <c r="C1342" t="n">
         <v>-0.001944288</v>
@@ -15210,7 +15210,7 @@
         <v>45488</v>
       </c>
       <c r="B1343" t="n">
-        <v>0.001107389</v>
+        <v>-0.017222642</v>
       </c>
       <c r="C1343" t="n">
         <v>-0.0080576265</v>
@@ -15221,7 +15221,7 @@
         <v>45489</v>
       </c>
       <c r="B1344" t="n">
-        <v>0.006339021</v>
+        <v>0.001011301</v>
       </c>
       <c r="C1344" t="n">
         <v>0.003675161</v>
@@ -15232,7 +15232,7 @@
         <v>45490</v>
       </c>
       <c r="B1345" t="n">
-        <v>0.000943577</v>
+        <v>-0.017265318</v>
       </c>
       <c r="C1345" t="n">
         <v>-0.0081608705</v>
@@ -15243,7 +15243,7 @@
         <v>45491</v>
       </c>
       <c r="B1346" t="n">
-        <v>0.005525329</v>
+        <v>-0.001703305</v>
       </c>
       <c r="C1346" t="n">
         <v>0.001911012</v>
@@ -15254,7 +15254,7 @@
         <v>45492</v>
       </c>
       <c r="B1347" t="n">
-        <v>0.005136312</v>
+        <v>0.005616171</v>
       </c>
       <c r="C1347" t="n">
         <v>0.0053762415</v>
@@ -15265,7 +15265,7 @@
         <v>45495</v>
       </c>
       <c r="B1348" t="n">
-        <v>-0.006807175</v>
+        <v>0.005699936</v>
       </c>
       <c r="C1348" t="n">
         <v>-0.0005536195000000002</v>
@@ -15276,7 +15276,7 @@
         <v>45496</v>
       </c>
       <c r="B1349" t="n">
-        <v>-0.021350954</v>
+        <v>-0.019440023</v>
       </c>
       <c r="C1349" t="n">
         <v>-0.0203954885</v>
@@ -15287,7 +15287,7 @@
         <v>45497</v>
       </c>
       <c r="B1350" t="n">
-        <v>-0.006311736</v>
+        <v>-0.017048399</v>
       </c>
       <c r="C1350" t="n">
         <v>-0.0116800675</v>
@@ -15298,7 +15298,7 @@
         <v>45498</v>
       </c>
       <c r="B1351" t="n">
-        <v>-0.00552773</v>
+        <v>0.004076214</v>
       </c>
       <c r="C1351" t="n">
         <v>-0.000725758</v>
@@ -15309,7 +15309,7 @@
         <v>45499</v>
       </c>
       <c r="B1352" t="n">
-        <v>0.002948132</v>
+        <v>0.018968053</v>
       </c>
       <c r="C1352" t="n">
         <v>0.0109580925</v>
@@ -15320,7 +15320,7 @@
         <v>45502</v>
       </c>
       <c r="B1353" t="n">
-        <v>-0.005441333</v>
+        <v>0.004655051</v>
       </c>
       <c r="C1353" t="n">
         <v>-0.0003931409999999996</v>
@@ -15331,7 +15331,7 @@
         <v>45503</v>
       </c>
       <c r="B1354" t="n">
-        <v>-0.006299477</v>
+        <v>0.007109658</v>
       </c>
       <c r="C1354" t="n">
         <v>0.0004050904999999996</v>
@@ -15342,7 +15342,7 @@
         <v>45504</v>
       </c>
       <c r="B1355" t="n">
-        <v>0.021577339</v>
+        <v>0.034633474</v>
       </c>
       <c r="C1355" t="n">
         <v>0.0281054065</v>
@@ -15353,7 +15353,7 @@
         <v>45505</v>
       </c>
       <c r="B1356" t="n">
-        <v>-0.006629065</v>
+        <v>0.003142696</v>
       </c>
       <c r="C1356" t="n">
         <v>-0.0017431845</v>
@@ -15364,7 +15364,7 @@
         <v>45506</v>
       </c>
       <c r="B1357" t="n">
-        <v>-0.010199468</v>
+        <v>-0.013376829</v>
       </c>
       <c r="C1357" t="n">
         <v>-0.0117881485</v>
@@ -15375,7 +15375,7 @@
         <v>45509</v>
       </c>
       <c r="B1358" t="n">
-        <v>-0.012135533</v>
+        <v>-0.028059432</v>
       </c>
       <c r="C1358" t="n">
         <v>-0.0200974825</v>
@@ -15386,7 +15386,7 @@
         <v>45510</v>
       </c>
       <c r="B1359" t="n">
-        <v>-0.000102174</v>
+        <v>0.020181884</v>
       </c>
       <c r="C1359" t="n">
         <v>0.010039855</v>
@@ -15397,7 +15397,7 @@
         <v>45511</v>
       </c>
       <c r="B1360" t="n">
-        <v>-0.00044568</v>
+        <v>0.00203738</v>
       </c>
       <c r="C1360" t="n">
         <v>0.0007958500000000001</v>
@@ -15408,7 +15408,7 @@
         <v>45512</v>
       </c>
       <c r="B1361" t="n">
-        <v>0.00043331</v>
+        <v>-0.006226981</v>
       </c>
       <c r="C1361" t="n">
         <v>-0.0028968355</v>
@@ -15419,7 +15419,7 @@
         <v>45513</v>
       </c>
       <c r="B1362" t="n">
-        <v>-0.003383103</v>
+        <v>-0.006647466</v>
       </c>
       <c r="C1362" t="n">
         <v>-0.0050152845</v>
@@ -15430,7 +15430,7 @@
         <v>45516</v>
       </c>
       <c r="B1363" t="n">
-        <v>-0.001729755</v>
+        <v>-0.009424257</v>
       </c>
       <c r="C1363" t="n">
         <v>-0.005577006</v>
@@ -15463,7 +15463,7 @@
         <v>45519</v>
       </c>
       <c r="B1366" t="n">
-        <v>0.009885687000000001</v>
+        <v>0.010424557</v>
       </c>
       <c r="C1366" t="n">
         <v>0.010155122</v>
@@ -15540,7 +15540,7 @@
         <v>45530</v>
       </c>
       <c r="B1373" t="n">
-        <v>-0.000891864</v>
+        <v>0.011594592</v>
       </c>
       <c r="C1373" t="n">
         <v>0.005351364000000001</v>
@@ -15551,7 +15551,7 @@
         <v>45531</v>
       </c>
       <c r="B1374" t="n">
-        <v>-0.00568232</v>
+        <v>-0.018221906</v>
       </c>
       <c r="C1374" t="n">
         <v>-0.011952113</v>
@@ -15562,7 +15562,7 @@
         <v>45532</v>
       </c>
       <c r="B1375" t="n">
-        <v>-0.005699334</v>
+        <v>0.004870483</v>
       </c>
       <c r="C1375" t="n">
         <v>-0.0004144255000000001</v>
@@ -15573,7 +15573,7 @@
         <v>45533</v>
       </c>
       <c r="B1376" t="n">
-        <v>-0.002682006</v>
+        <v>0.016015079</v>
       </c>
       <c r="C1376" t="n">
         <v>0.0066665365</v>
@@ -15584,7 +15584,7 @@
         <v>45534</v>
       </c>
       <c r="B1377" t="n">
-        <v>0.013348187</v>
+        <v>0.021407884</v>
       </c>
       <c r="C1377" t="n">
         <v>0.0173780355</v>
@@ -15595,7 +15595,7 @@
         <v>45537</v>
       </c>
       <c r="B1378" t="n">
-        <v>-0.016987039</v>
+        <v>-0.016217449</v>
       </c>
       <c r="C1378" t="n">
         <v>-0.016602244</v>
@@ -15606,7 +15606,7 @@
         <v>45538</v>
       </c>
       <c r="B1379" t="n">
-        <v>0.002578001</v>
+        <v>0.010690633</v>
       </c>
       <c r="C1379" t="n">
         <v>0.006634317</v>
@@ -15617,7 +15617,7 @@
         <v>45539</v>
       </c>
       <c r="B1380" t="n">
-        <v>-0.006495728</v>
+        <v>-0.006840816</v>
       </c>
       <c r="C1380" t="n">
         <v>-0.006668272</v>
@@ -15628,7 +15628,7 @@
         <v>45540</v>
       </c>
       <c r="B1381" t="n">
-        <v>0.001719747</v>
+        <v>0.010506388</v>
       </c>
       <c r="C1381" t="n">
         <v>0.0061130675</v>
@@ -15639,7 +15639,7 @@
         <v>45541</v>
       </c>
       <c r="B1382" t="n">
-        <v>-0.008107447</v>
+        <v>-0.019296359</v>
       </c>
       <c r="C1382" t="n">
         <v>-0.013701903</v>
@@ -15650,7 +15650,7 @@
         <v>45544</v>
       </c>
       <c r="B1383" t="n">
-        <v>-0.011881768</v>
+        <v>-0.002252961</v>
       </c>
       <c r="C1383" t="n">
         <v>-0.007067364499999999</v>
@@ -15749,7 +15749,7 @@
         <v>45559</v>
       </c>
       <c r="B1392" t="n">
-        <v>0.031809584</v>
+        <v>0.043310092</v>
       </c>
       <c r="C1392" t="n">
         <v>0.037559838</v>
@@ -15782,7 +15782,7 @@
         <v>45562</v>
       </c>
       <c r="B1395" t="n">
-        <v>0.0446686</v>
+        <v>0.047495093</v>
       </c>
       <c r="C1395" t="n">
         <v>0.0460818465</v>
@@ -15793,7 +15793,7 @@
         <v>45565</v>
       </c>
       <c r="B1396" t="n">
-        <v>0.08482622300000001</v>
+        <v>0.110850987</v>
       </c>
       <c r="C1396" t="n">
         <v>0.097838605</v>
@@ -15804,7 +15804,7 @@
         <v>45573</v>
       </c>
       <c r="B1397" t="n">
-        <v>0.059295751</v>
+        <v>0.086693136</v>
       </c>
       <c r="C1397" t="n">
         <v>0.07299444350000001</v>
@@ -15815,7 +15815,7 @@
         <v>45574</v>
       </c>
       <c r="B1398" t="n">
-        <v>-0.070513514</v>
+        <v>-0.093629538</v>
       </c>
       <c r="C1398" t="n">
         <v>-0.08207152600000001</v>
@@ -15826,7 +15826,7 @@
         <v>45575</v>
       </c>
       <c r="B1399" t="n">
-        <v>0.010567283</v>
+        <v>-0.001073557</v>
       </c>
       <c r="C1399" t="n">
         <v>0.004746863</v>
@@ -15837,7 +15837,7 @@
         <v>45576</v>
       </c>
       <c r="B1400" t="n">
-        <v>-0.027670528</v>
+        <v>-0.039863079</v>
       </c>
       <c r="C1400" t="n">
         <v>-0.0337668035</v>
@@ -15848,7 +15848,7 @@
         <v>45579</v>
       </c>
       <c r="B1401" t="n">
-        <v>0.019082123</v>
+        <v>0.036614906</v>
       </c>
       <c r="C1401" t="n">
         <v>0.0278485145</v>
@@ -15859,7 +15859,7 @@
         <v>45580</v>
       </c>
       <c r="B1402" t="n">
-        <v>-0.026593889</v>
+        <v>-0.011697138</v>
       </c>
       <c r="C1402" t="n">
         <v>-0.0191455135</v>
@@ -15870,7 +15870,7 @@
         <v>45581</v>
       </c>
       <c r="B1403" t="n">
-        <v>-0.006329339</v>
+        <v>0.005541769</v>
       </c>
       <c r="C1403" t="n">
         <v>-0.0003937849999999998</v>
@@ -15881,7 +15881,7 @@
         <v>45582</v>
       </c>
       <c r="B1404" t="n">
-        <v>-0.011318359</v>
+        <v>-0.000849603</v>
       </c>
       <c r="C1404" t="n">
         <v>-0.006083981</v>
@@ -15892,7 +15892,7 @@
         <v>45583</v>
       </c>
       <c r="B1405" t="n">
-        <v>0.036167973</v>
+        <v>0.030627588</v>
       </c>
       <c r="C1405" t="n">
         <v>0.0333977805</v>
@@ -15903,7 +15903,7 @@
         <v>45586</v>
       </c>
       <c r="B1406" t="n">
-        <v>0.002538295</v>
+        <v>0.025389025</v>
       </c>
       <c r="C1406" t="n">
         <v>0.01396366</v>
@@ -15914,7 +15914,7 @@
         <v>45587</v>
       </c>
       <c r="B1407" t="n">
-        <v>0.005737476</v>
+        <v>0.008725246000000001</v>
       </c>
       <c r="C1407" t="n">
         <v>0.007231361</v>
@@ -15925,7 +15925,7 @@
         <v>45588</v>
       </c>
       <c r="B1408" t="n">
-        <v>0.003899514</v>
+        <v>0.000507773</v>
       </c>
       <c r="C1408" t="n">
         <v>0.0022036435</v>
@@ -15936,7 +15936,7 @@
         <v>45589</v>
       </c>
       <c r="B1409" t="n">
-        <v>-0.01116868</v>
+        <v>-0.000655038</v>
       </c>
       <c r="C1409" t="n">
         <v>-0.005911859</v>
@@ -15947,7 +15947,7 @@
         <v>45590</v>
       </c>
       <c r="B1410" t="n">
-        <v>0.00702183</v>
+        <v>0.023745011</v>
       </c>
       <c r="C1410" t="n">
         <v>0.0153834205</v>
@@ -15958,7 +15958,7 @@
         <v>45593</v>
       </c>
       <c r="B1411" t="n">
-        <v>0.001955277</v>
+        <v>0.029717994</v>
       </c>
       <c r="C1411" t="n">
         <v>0.0158366355</v>
@@ -15980,7 +15980,7 @@
         <v>45595</v>
       </c>
       <c r="B1413" t="n">
-        <v>0.005529203</v>
+        <v>-0.008969031000000001</v>
       </c>
       <c r="C1413" t="n">
         <v>-0.001719914</v>
@@ -15991,7 +15991,7 @@
         <v>45596</v>
       </c>
       <c r="B1414" t="n">
-        <v>0.018352393</v>
+        <v>0.00040903</v>
       </c>
       <c r="C1414" t="n">
         <v>0.009380711500000001</v>
@@ -16002,7 +16002,7 @@
         <v>45597</v>
       </c>
       <c r="B1415" t="n">
-        <v>-0.043091637</v>
+        <v>-0.000261961</v>
       </c>
       <c r="C1415" t="n">
         <v>-0.021676799</v>
@@ -16013,7 +16013,7 @@
         <v>45600</v>
       </c>
       <c r="B1416" t="n">
-        <v>0.020448498</v>
+        <v>0.014072317</v>
       </c>
       <c r="C1416" t="n">
         <v>0.0172604075</v>
@@ -16024,7 +16024,7 @@
         <v>45601</v>
       </c>
       <c r="B1417" t="n">
-        <v>0.03188824</v>
+        <v>0.025302059</v>
       </c>
       <c r="C1417" t="n">
         <v>0.0285951495</v>
@@ -16035,7 +16035,7 @@
         <v>45602</v>
       </c>
       <c r="B1418" t="n">
-        <v>0.008971526000000001</v>
+        <v>-0.005016451</v>
       </c>
       <c r="C1418" t="n">
         <v>0.0019775375</v>
@@ -16046,7 +16046,7 @@
         <v>45603</v>
       </c>
       <c r="B1419" t="n">
-        <v>0.023364145</v>
+        <v>0.030169871</v>
       </c>
       <c r="C1419" t="n">
         <v>0.026767008</v>
@@ -16057,7 +16057,7 @@
         <v>45604</v>
       </c>
       <c r="B1420" t="n">
-        <v>0.003669034</v>
+        <v>-0.010046132</v>
       </c>
       <c r="C1420" t="n">
         <v>-0.003188549</v>
@@ -16552,7 +16552,7 @@
         <v>45670</v>
       </c>
       <c r="B1465" t="n">
-        <v>-0.002670503</v>
+        <v>-0.000248085</v>
       </c>
       <c r="C1465" t="n">
         <v>-0.001459294</v>
@@ -16563,7 +16563,7 @@
         <v>45671</v>
       </c>
       <c r="B1466" t="n">
-        <v>0.026333421</v>
+        <v>0.053673338</v>
       </c>
       <c r="C1466" t="n">
         <v>0.0400033795</v>
@@ -16574,7 +16574,7 @@
         <v>45672</v>
       </c>
       <c r="B1467" t="n">
-        <v>-0.00641624</v>
+        <v>-0.002897131</v>
       </c>
       <c r="C1467" t="n">
         <v>-0.0046566855</v>
@@ -16585,7 +16585,7 @@
         <v>45673</v>
       </c>
       <c r="B1468" t="n">
-        <v>0.001147937</v>
+        <v>0.007370729</v>
       </c>
       <c r="C1468" t="n">
         <v>0.004259333000000001</v>
@@ -16596,7 +16596,7 @@
         <v>45674</v>
       </c>
       <c r="B1469" t="n">
-        <v>0.003146867</v>
+        <v>-0.001060239</v>
       </c>
       <c r="C1469" t="n">
         <v>0.001043314</v>
@@ -16607,7 +16607,7 @@
         <v>45677</v>
       </c>
       <c r="B1470" t="n">
-        <v>0.004546679</v>
+        <v>0.01205042</v>
       </c>
       <c r="C1470" t="n">
         <v>0.008298549499999999</v>
@@ -16618,7 +16618,7 @@
         <v>45678</v>
       </c>
       <c r="B1471" t="n">
-        <v>0.000767193</v>
+        <v>0.002037516</v>
       </c>
       <c r="C1471" t="n">
         <v>0.0014023545</v>
@@ -16629,7 +16629,7 @@
         <v>45679</v>
       </c>
       <c r="B1472" t="n">
-        <v>-0.00928815</v>
+        <v>-0.013194202</v>
       </c>
       <c r="C1472" t="n">
         <v>-0.011241176</v>
@@ -16640,7 +16640,7 @@
         <v>45680</v>
       </c>
       <c r="B1473" t="n">
-        <v>0.001771733</v>
+        <v>-0.002556927</v>
       </c>
       <c r="C1473" t="n">
         <v>-0.0003925970000000001</v>
@@ -16651,7 +16651,7 @@
         <v>45681</v>
       </c>
       <c r="B1474" t="n">
-        <v>0.007655563</v>
+        <v>0.01451905</v>
       </c>
       <c r="C1474" t="n">
         <v>0.0110873065</v>
@@ -16662,7 +16662,7 @@
         <v>45684</v>
       </c>
       <c r="B1475" t="n">
-        <v>-0.004117939</v>
+        <v>-0.016670164</v>
       </c>
       <c r="C1475" t="n">
         <v>-0.0103940515</v>
@@ -16706,7 +16706,7 @@
         <v>45698</v>
       </c>
       <c r="B1479" t="n">
-        <v>0.002147351</v>
+        <v>0.02208964</v>
       </c>
       <c r="C1479" t="n">
         <v>0.0121184955</v>
@@ -16717,7 +16717,7 @@
         <v>45699</v>
       </c>
       <c r="B1480" t="n">
-        <v>-0.004595313</v>
+        <v>-0.002848287</v>
       </c>
       <c r="C1480" t="n">
         <v>-0.0037218</v>
@@ -16728,7 +16728,7 @@
         <v>45700</v>
       </c>
       <c r="B1481" t="n">
-        <v>0.00945795</v>
+        <v>0.013091009</v>
       </c>
       <c r="C1481" t="n">
         <v>0.0112744795</v>
@@ -16871,7 +16871,7 @@
         <v>45719</v>
       </c>
       <c r="B1494" t="n">
-        <v>0.001809189</v>
+        <v>-0.000404854</v>
       </c>
       <c r="C1494" t="n">
         <v>0.0007021674999999999</v>
@@ -16882,7 +16882,7 @@
         <v>45720</v>
       </c>
       <c r="B1495" t="n">
-        <v>0.015528099</v>
+        <v>-0.000836575</v>
       </c>
       <c r="C1495" t="n">
         <v>0.007345762</v>
@@ -16893,7 +16893,7 @@
         <v>45721</v>
       </c>
       <c r="B1496" t="n">
-        <v>0.007325909</v>
+        <v>0.004465589</v>
       </c>
       <c r="C1496" t="n">
         <v>0.005895749</v>
@@ -16904,7 +16904,7 @@
         <v>45722</v>
       </c>
       <c r="B1497" t="n">
-        <v>0.020611235</v>
+        <v>0.013751526</v>
       </c>
       <c r="C1497" t="n">
         <v>0.0171813805</v>
@@ -16915,7 +16915,7 @@
         <v>45723</v>
       </c>
       <c r="B1498" t="n">
-        <v>-0.005782212</v>
+        <v>-0.003089451</v>
       </c>
       <c r="C1498" t="n">
         <v>-0.0044358315</v>
@@ -16926,7 +16926,7 @@
         <v>45726</v>
       </c>
       <c r="B1499" t="n">
-        <v>0.003914842</v>
+        <v>-0.003857111</v>
       </c>
       <c r="C1499" t="n">
         <v>2.886550000000005e-05</v>
@@ -16937,7 +16937,7 @@
         <v>45727</v>
       </c>
       <c r="B1500" t="n">
-        <v>0.002902758</v>
+        <v>0.003210623</v>
       </c>
       <c r="C1500" t="n">
         <v>0.0030566905</v>
@@ -16948,7 +16948,7 @@
         <v>45728</v>
       </c>
       <c r="B1501" t="n">
-        <v>0.007336742</v>
+        <v>-0.003598758</v>
       </c>
       <c r="C1501" t="n">
         <v>0.001868992</v>
@@ -16959,7 +16959,7 @@
         <v>45729</v>
       </c>
       <c r="B1502" t="n">
-        <v>-0.018390079</v>
+        <v>-0.003985556</v>
       </c>
       <c r="C1502" t="n">
         <v>-0.0111878175</v>
@@ -16970,7 +16970,7 @@
         <v>45730</v>
       </c>
       <c r="B1503" t="n">
-        <v>0.017951154</v>
+        <v>0.024281088</v>
       </c>
       <c r="C1503" t="n">
         <v>0.021116121</v>
@@ -16981,7 +16981,7 @@
         <v>45733</v>
       </c>
       <c r="B1504" t="n">
-        <v>0.007798722</v>
+        <v>-0.002438278</v>
       </c>
       <c r="C1504" t="n">
         <v>0.002680222</v>
@@ -16992,7 +16992,7 @@
         <v>45734</v>
       </c>
       <c r="B1505" t="n">
-        <v>0.005990285</v>
+        <v>0.002736022</v>
       </c>
       <c r="C1505" t="n">
         <v>0.0043631535</v>
@@ -17003,7 +17003,7 @@
         <v>45735</v>
       </c>
       <c r="B1506" t="n">
-        <v>-0.005445285</v>
+        <v>0.000610097</v>
       </c>
       <c r="C1506" t="n">
         <v>-0.002417594</v>
@@ -17014,7 +17014,7 @@
         <v>45736</v>
       </c>
       <c r="B1507" t="n">
-        <v>0.00135894</v>
+        <v>-0.008771752000000001</v>
       </c>
       <c r="C1507" t="n">
         <v>-0.003706406</v>
@@ -17025,7 +17025,7 @@
         <v>45737</v>
       </c>
       <c r="B1508" t="n">
-        <v>-0.021146481</v>
+        <v>-0.015168887</v>
       </c>
       <c r="C1508" t="n">
         <v>-0.018157684</v>
@@ -17036,7 +17036,7 @@
         <v>45740</v>
       </c>
       <c r="B1509" t="n">
-        <v>-0.018951498</v>
+        <v>0.005148038</v>
       </c>
       <c r="C1509" t="n">
         <v>-0.00690173</v>
@@ -17047,7 +17047,7 @@
         <v>45741</v>
       </c>
       <c r="B1510" t="n">
-        <v>-0.009832868999999999</v>
+        <v>-0.0006489449999999999</v>
       </c>
       <c r="C1510" t="n">
         <v>-0.005240907</v>
@@ -17058,7 +17058,7 @@
         <v>45742</v>
       </c>
       <c r="B1511" t="n">
-        <v>0.011790226</v>
+        <v>-0.003290318</v>
       </c>
       <c r="C1511" t="n">
         <v>0.004249953999999999</v>
@@ -17069,7 +17069,7 @@
         <v>45743</v>
       </c>
       <c r="B1512" t="n">
-        <v>-0.007272953</v>
+        <v>0.003330929</v>
       </c>
       <c r="C1512" t="n">
         <v>-0.001971012</v>
@@ -17080,7 +17080,7 @@
         <v>45744</v>
       </c>
       <c r="B1513" t="n">
-        <v>-0.015083667</v>
+        <v>-0.004385477</v>
       </c>
       <c r="C1513" t="n">
         <v>-0.009734572</v>
@@ -17091,7 +17091,7 @@
         <v>45747</v>
       </c>
       <c r="B1514" t="n">
-        <v>-0.012140429</v>
+        <v>-0.007116071</v>
       </c>
       <c r="C1514" t="n">
         <v>-0.00962825</v>
@@ -17102,7 +17102,7 @@
         <v>45748</v>
       </c>
       <c r="B1515" t="n">
-        <v>0.008881817</v>
+        <v>9.74e-05</v>
       </c>
       <c r="C1515" t="n">
         <v>0.0044896085</v>
@@ -17124,7 +17124,7 @@
         <v>45750</v>
       </c>
       <c r="B1517" t="n">
-        <v>-0.010250258</v>
+        <v>-0.005890867</v>
       </c>
       <c r="C1517" t="n">
         <v>-0.0080705625</v>
@@ -17135,7 +17135,7 @@
         <v>45754</v>
       </c>
       <c r="B1518" t="n">
-        <v>-0.128314646</v>
+        <v>-0.07045514999999999</v>
       </c>
       <c r="C1518" t="n">
         <v>-0.099384898</v>
@@ -17146,7 +17146,7 @@
         <v>45755</v>
       </c>
       <c r="B1519" t="n">
-        <v>-0.005176583</v>
+        <v>0.017082996</v>
       </c>
       <c r="C1519" t="n">
         <v>0.0059532065</v>
@@ -17157,7 +17157,7 @@
         <v>45756</v>
       </c>
       <c r="B1520" t="n">
-        <v>0.029875151</v>
+        <v>0.009870632000000001</v>
       </c>
       <c r="C1520" t="n">
         <v>0.0198728915</v>
@@ -17168,7 +17168,7 @@
         <v>45757</v>
       </c>
       <c r="B1521" t="n">
-        <v>0.031231935</v>
+        <v>0.013106454</v>
       </c>
       <c r="C1521" t="n">
         <v>0.0221691945</v>
@@ -17179,7 +17179,7 @@
         <v>45758</v>
       </c>
       <c r="B1522" t="n">
-        <v>0.009704387</v>
+        <v>0.004123461</v>
       </c>
       <c r="C1522" t="n">
         <v>0.006913924</v>
@@ -17190,7 +17190,7 @@
         <v>45761</v>
       </c>
       <c r="B1523" t="n">
-        <v>0.021819818</v>
+        <v>0.002299816</v>
       </c>
       <c r="C1523" t="n">
         <v>0.012059817</v>
@@ -17201,7 +17201,7 @@
         <v>45762</v>
       </c>
       <c r="B1524" t="n">
-        <v>-0.00049717</v>
+        <v>0.00055667</v>
       </c>
       <c r="C1524" t="n">
         <v>2.974999999999999e-05</v>
@@ -17212,7 +17212,7 @@
         <v>45763</v>
       </c>
       <c r="B1525" t="n">
-        <v>-0.017085328</v>
+        <v>0.003080265</v>
       </c>
       <c r="C1525" t="n">
         <v>-0.0070025315</v>
@@ -17223,7 +17223,7 @@
         <v>45764</v>
       </c>
       <c r="B1526" t="n">
-        <v>0.005597204</v>
+        <v>-0.000158582</v>
       </c>
       <c r="C1526" t="n">
         <v>0.002719311</v>
@@ -17234,7 +17234,7 @@
         <v>45765</v>
       </c>
       <c r="B1527" t="n">
-        <v>-0.001957004</v>
+        <v>7.98e-05</v>
       </c>
       <c r="C1527" t="n">
         <v>-0.000938602</v>
@@ -17245,7 +17245,7 @@
         <v>45768</v>
       </c>
       <c r="B1528" t="n">
-        <v>0.022908586</v>
+        <v>0.003275686</v>
       </c>
       <c r="C1528" t="n">
         <v>0.013092136</v>
@@ -17256,7 +17256,7 @@
         <v>45769</v>
       </c>
       <c r="B1529" t="n">
-        <v>-0.000151451</v>
+        <v>-0.000245292</v>
       </c>
       <c r="C1529" t="n">
         <v>-0.0001983715</v>
@@ -17267,7 +17267,7 @@
         <v>45770</v>
       </c>
       <c r="B1530" t="n">
-        <v>0.0117</v>
+        <v>0.0008</v>
       </c>
       <c r="C1530" t="n">
         <v>0.00625</v>
@@ -17278,7 +17278,7 @@
         <v>45771</v>
       </c>
       <c r="B1531" t="n">
-        <v>-0.010266296</v>
+        <v>-0.000666775</v>
       </c>
       <c r="C1531" t="n">
         <v>-0.0054665355</v>
@@ -17289,7 +17289,7 @@
         <v>45772</v>
       </c>
       <c r="B1532" t="n">
-        <v>0.002871311</v>
+        <v>0.000696631</v>
       </c>
       <c r="C1532" t="n">
         <v>0.001783971</v>
@@ -17300,7 +17300,7 @@
         <v>45775</v>
       </c>
       <c r="B1533" t="n">
-        <v>-0.014225998</v>
+        <v>-0.001419305</v>
       </c>
       <c r="C1533" t="n">
         <v>-0.0078226515</v>
@@ -17315,6 +17315,28 @@
       </c>
       <c r="C1534" t="n">
         <v>0.004087453</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>0.012942564</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0.0058744465</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>0.032509835</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>0.0212902165</v>
       </c>
     </row>
   </sheetData>
